--- a/Brondata/uren-leraar-structuuronderdelen.xlsx
+++ b/Brondata/uren-leraar-structuuronderdelen.xlsx
@@ -5,17 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucp14223\Files\programmeren\onderwijs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucp14223\Files\programmeren\onderwijs\analyse\Brondata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB7CCE2-C7CE-465C-9B67-185238FECA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D3C23B-0A91-484C-ADB3-4BAAF7F6F595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NA MODERNISERING" sheetId="1" r:id="rId1"/>
     <sheet name="VOOR MODERNISERING" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NA MODERNISERING'!$A$1:$D$426</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'VOOR MODERNISERING'!$A$1:$E$428</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="830">
   <si>
     <t>Economische wetenschappen</t>
   </si>
@@ -2516,6 +2520,9 @@
   </si>
   <si>
     <t>Hoofdstructuur</t>
+  </si>
+  <si>
+    <t>7e leerjaar BSO gericht op het hoger onderwijs</t>
   </si>
 </sst>
 </file>
@@ -2623,7 +2630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2689,6 +2696,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2970,20 +2983,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D426"/>
+  <dimension ref="A1:D427"/>
   <sheetViews>
-    <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="1" max="1" width="48.44140625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -2997,7 +3008,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>233</v>
       </c>
@@ -3011,7 +3022,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>234</v>
       </c>
@@ -3025,7 +3036,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>235</v>
       </c>
@@ -3039,7 +3050,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>236</v>
       </c>
@@ -3053,7 +3064,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>241</v>
       </c>
@@ -3067,7 +3078,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="15" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3081,7 +3092,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3095,7 +3106,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,7 +3120,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -3123,7 +3134,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -3137,7 +3148,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -3151,7 +3162,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -3165,7 +3176,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -3179,7 +3190,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -3193,7 +3204,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -3207,7 +3218,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+    <row r="17" spans="1:4" ht="15" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -3221,7 +3232,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1">
+    <row r="18" spans="1:4" ht="15" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -3235,7 +3246,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1">
+    <row r="19" spans="1:4" ht="15" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -3249,7 +3260,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+    <row r="20" spans="1:4" ht="15" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -3263,7 +3274,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -3277,7 +3288,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1">
+    <row r="22" spans="1:4" ht="15" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -3291,7 +3302,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+    <row r="23" spans="1:4" ht="15" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -3305,7 +3316,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1">
+    <row r="24" spans="1:4" ht="15" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -3319,7 +3330,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1">
+    <row r="25" spans="1:4" ht="15" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -3333,7 +3344,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1">
+    <row r="26" spans="1:4" ht="15" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -3347,7 +3358,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1">
+    <row r="27" spans="1:4" ht="15" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -3361,7 +3372,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1">
+    <row r="28" spans="1:4" ht="15" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
@@ -3375,7 +3386,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1">
+    <row r="29" spans="1:4" ht="15" thickBot="1">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -3389,7 +3400,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+    <row r="30" spans="1:4" ht="15" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -3403,7 +3414,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1">
+    <row r="31" spans="1:4" ht="15" thickBot="1">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -3417,7 +3428,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1">
+    <row r="32" spans="1:4" ht="15" thickBot="1">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -3431,7 +3442,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1">
+    <row r="33" spans="1:4" ht="15" thickBot="1">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -3445,7 +3456,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1">
+    <row r="34" spans="1:4" ht="15" thickBot="1">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
@@ -3459,7 +3470,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+    <row r="35" spans="1:4" ht="15" thickBot="1">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -3473,7 +3484,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1">
+    <row r="36" spans="1:4" ht="15" thickBot="1">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -3487,7 +3498,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1">
+    <row r="37" spans="1:4" ht="15" thickBot="1">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -3501,7 +3512,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1">
+    <row r="38" spans="1:4" ht="15" thickBot="1">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
@@ -3515,7 +3526,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1">
+    <row r="39" spans="1:4" ht="15" thickBot="1">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -3529,7 +3540,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1">
+    <row r="40" spans="1:4" ht="15" thickBot="1">
       <c r="A40" s="3" t="s">
         <v>32</v>
       </c>
@@ -3543,7 +3554,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+    <row r="41" spans="1:4" ht="15" thickBot="1">
       <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
@@ -3557,7 +3568,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+    <row r="42" spans="1:4" ht="15" thickBot="1">
       <c r="A42" s="3" t="s">
         <v>37</v>
       </c>
@@ -3571,7 +3582,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+    <row r="43" spans="1:4" ht="15" thickBot="1">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -3585,7 +3596,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1">
+    <row r="44" spans="1:4" ht="15" thickBot="1">
       <c r="A44" s="3" t="s">
         <v>239</v>
       </c>
@@ -3599,7 +3610,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1">
+    <row r="45" spans="1:4" ht="15" thickBot="1">
       <c r="A45" s="3" t="s">
         <v>38</v>
       </c>
@@ -3613,7 +3624,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1">
+    <row r="46" spans="1:4" ht="15" thickBot="1">
       <c r="A46" s="3" t="s">
         <v>39</v>
       </c>
@@ -3627,7 +3638,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1">
+    <row r="47" spans="1:4" ht="15" thickBot="1">
       <c r="A47" s="3" t="s">
         <v>40</v>
       </c>
@@ -3641,7 +3652,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1">
+    <row r="48" spans="1:4" ht="15" thickBot="1">
       <c r="A48" s="3" t="s">
         <v>41</v>
       </c>
@@ -3655,7 +3666,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+    <row r="49" spans="1:4" ht="15" thickBot="1">
       <c r="A49" s="3" t="s">
         <v>42</v>
       </c>
@@ -3669,7 +3680,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1">
+    <row r="50" spans="1:4" ht="15" thickBot="1">
       <c r="A50" s="3" t="s">
         <v>34</v>
       </c>
@@ -3683,7 +3694,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1">
+    <row r="51" spans="1:4" ht="15" thickBot="1">
       <c r="A51" s="3" t="s">
         <v>43</v>
       </c>
@@ -3697,7 +3708,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1">
+    <row r="52" spans="1:4" ht="15" thickBot="1">
       <c r="A52" s="3" t="s">
         <v>44</v>
       </c>
@@ -3711,7 +3722,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1">
+    <row r="53" spans="1:4" ht="15" thickBot="1">
       <c r="A53" s="3" t="s">
         <v>45</v>
       </c>
@@ -3725,7 +3736,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1">
+    <row r="54" spans="1:4" ht="15" thickBot="1">
       <c r="A54" s="3" t="s">
         <v>46</v>
       </c>
@@ -3739,7 +3750,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1">
+    <row r="55" spans="1:4" ht="15" thickBot="1">
       <c r="A55" s="3" t="s">
         <v>47</v>
       </c>
@@ -3753,7 +3764,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1">
+    <row r="56" spans="1:4" ht="15" thickBot="1">
       <c r="A56" s="3" t="s">
         <v>49</v>
       </c>
@@ -3767,7 +3778,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1">
+    <row r="57" spans="1:4" ht="15" thickBot="1">
       <c r="A57" s="3" t="s">
         <v>50</v>
       </c>
@@ -3781,7 +3792,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+    <row r="58" spans="1:4" ht="15" thickBot="1">
       <c r="A58" s="3" t="s">
         <v>51</v>
       </c>
@@ -3795,7 +3806,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1">
+    <row r="59" spans="1:4" ht="15" thickBot="1">
       <c r="A59" s="3" t="s">
         <v>28</v>
       </c>
@@ -3809,7 +3820,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1">
+    <row r="60" spans="1:4" ht="15" thickBot="1">
       <c r="A60" s="3" t="s">
         <v>52</v>
       </c>
@@ -3823,7 +3834,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1">
+    <row r="61" spans="1:4" ht="15" thickBot="1">
       <c r="A61" s="3" t="s">
         <v>53</v>
       </c>
@@ -3837,7 +3848,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1">
+    <row r="62" spans="1:4" ht="15" thickBot="1">
       <c r="A62" s="3" t="s">
         <v>54</v>
       </c>
@@ -3851,7 +3862,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1">
+    <row r="63" spans="1:4" ht="15" thickBot="1">
       <c r="A63" s="3" t="s">
         <v>28</v>
       </c>
@@ -3865,7 +3876,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1">
+    <row r="64" spans="1:4" ht="15" thickBot="1">
       <c r="A64" s="3" t="s">
         <v>55</v>
       </c>
@@ -3879,7 +3890,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1">
+    <row r="65" spans="1:4" ht="15" thickBot="1">
       <c r="A65" s="3" t="s">
         <v>57</v>
       </c>
@@ -3893,7 +3904,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1">
+    <row r="66" spans="1:4" ht="15" thickBot="1">
       <c r="A66" s="3" t="s">
         <v>58</v>
       </c>
@@ -3907,7 +3918,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1">
+    <row r="67" spans="1:4" ht="15" thickBot="1">
       <c r="A67" s="3" t="s">
         <v>59</v>
       </c>
@@ -3921,7 +3932,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1">
+    <row r="68" spans="1:4" ht="15" thickBot="1">
       <c r="A68" s="3" t="s">
         <v>60</v>
       </c>
@@ -3935,7 +3946,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1">
+    <row r="69" spans="1:4" ht="15" thickBot="1">
       <c r="A69" s="3" t="s">
         <v>61</v>
       </c>
@@ -3949,7 +3960,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1">
+    <row r="70" spans="1:4" ht="15" thickBot="1">
       <c r="A70" s="3" t="s">
         <v>62</v>
       </c>
@@ -3963,7 +3974,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1">
+    <row r="71" spans="1:4" ht="15" thickBot="1">
       <c r="A71" s="3" t="s">
         <v>63</v>
       </c>
@@ -3977,7 +3988,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1">
+    <row r="72" spans="1:4" ht="15" thickBot="1">
       <c r="A72" s="3" t="s">
         <v>64</v>
       </c>
@@ -3991,7 +4002,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1">
+    <row r="73" spans="1:4" ht="15" thickBot="1">
       <c r="A73" s="3" t="s">
         <v>240</v>
       </c>
@@ -4005,7 +4016,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1">
+    <row r="74" spans="1:4" ht="15" thickBot="1">
       <c r="A74" s="3" t="s">
         <v>65</v>
       </c>
@@ -4019,7 +4030,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1">
+    <row r="75" spans="1:4" ht="15" thickBot="1">
       <c r="A75" s="3" t="s">
         <v>66</v>
       </c>
@@ -4033,7 +4044,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1">
+    <row r="76" spans="1:4" ht="15" thickBot="1">
       <c r="A76" s="3" t="s">
         <v>67</v>
       </c>
@@ -4047,7 +4058,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1">
+    <row r="77" spans="1:4" ht="15" thickBot="1">
       <c r="A77" s="3" t="s">
         <v>68</v>
       </c>
@@ -4061,7 +4072,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1">
+    <row r="78" spans="1:4" ht="15" thickBot="1">
       <c r="A78" s="3" t="s">
         <v>69</v>
       </c>
@@ -4075,7 +4086,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1">
+    <row r="79" spans="1:4" ht="15" thickBot="1">
       <c r="A79" s="3" t="s">
         <v>70</v>
       </c>
@@ -4089,7 +4100,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1">
+    <row r="80" spans="1:4" ht="15" thickBot="1">
       <c r="A80" s="3" t="s">
         <v>71</v>
       </c>
@@ -4103,7 +4114,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1">
+    <row r="81" spans="1:4" ht="15" thickBot="1">
       <c r="A81" s="3" t="s">
         <v>72</v>
       </c>
@@ -4117,7 +4128,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1">
+    <row r="82" spans="1:4" ht="15" thickBot="1">
       <c r="A82" s="3" t="s">
         <v>48</v>
       </c>
@@ -4131,7 +4142,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1">
+    <row r="83" spans="1:4" ht="15" thickBot="1">
       <c r="A83" s="3" t="s">
         <v>73</v>
       </c>
@@ -4145,7 +4156,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1">
+    <row r="84" spans="1:4" ht="15" thickBot="1">
       <c r="A84" s="3" t="s">
         <v>74</v>
       </c>
@@ -4159,7 +4170,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1">
+    <row r="85" spans="1:4" ht="15" thickBot="1">
       <c r="A85" s="3" t="s">
         <v>75</v>
       </c>
@@ -4173,7 +4184,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1">
+    <row r="86" spans="1:4" ht="15" thickBot="1">
       <c r="A86" s="3" t="s">
         <v>76</v>
       </c>
@@ -4187,7 +4198,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1">
+    <row r="87" spans="1:4" ht="15" thickBot="1">
       <c r="A87" s="3" t="s">
         <v>77</v>
       </c>
@@ -4201,7 +4212,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1">
+    <row r="88" spans="1:4" ht="15" thickBot="1">
       <c r="A88" s="3" t="s">
         <v>78</v>
       </c>
@@ -4215,7 +4226,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1">
+    <row r="89" spans="1:4" ht="15" thickBot="1">
       <c r="A89" s="3" t="s">
         <v>79</v>
       </c>
@@ -4229,7 +4240,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" thickBot="1">
+    <row r="90" spans="1:4" ht="15" thickBot="1">
       <c r="A90" s="3" t="s">
         <v>80</v>
       </c>
@@ -4243,7 +4254,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" thickBot="1">
+    <row r="91" spans="1:4" ht="15" thickBot="1">
       <c r="A91" s="3" t="s">
         <v>81</v>
       </c>
@@ -4257,7 +4268,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1">
+    <row r="92" spans="1:4" ht="15" thickBot="1">
       <c r="A92" s="3" t="s">
         <v>82</v>
       </c>
@@ -4271,7 +4282,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" thickBot="1">
+    <row r="93" spans="1:4" ht="15" thickBot="1">
       <c r="A93" s="3" t="s">
         <v>83</v>
       </c>
@@ -4285,7 +4296,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" thickBot="1">
+    <row r="94" spans="1:4" ht="15" thickBot="1">
       <c r="A94" s="3" t="s">
         <v>84</v>
       </c>
@@ -4299,7 +4310,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" thickBot="1">
+    <row r="95" spans="1:4" ht="15" thickBot="1">
       <c r="A95" s="3" t="s">
         <v>85</v>
       </c>
@@ -4313,7 +4324,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1">
+    <row r="96" spans="1:4" ht="15" thickBot="1">
       <c r="A96" s="3" t="s">
         <v>86</v>
       </c>
@@ -4327,7 +4338,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1">
+    <row r="97" spans="1:4" ht="15" thickBot="1">
       <c r="A97" s="3" t="s">
         <v>87</v>
       </c>
@@ -4341,7 +4352,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1">
+    <row r="98" spans="1:4" ht="15" thickBot="1">
       <c r="A98" s="3" t="s">
         <v>88</v>
       </c>
@@ -4355,7 +4366,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1">
+    <row r="99" spans="1:4" ht="15" thickBot="1">
       <c r="A99" s="3" t="s">
         <v>89</v>
       </c>
@@ -4369,7 +4380,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" thickBot="1">
+    <row r="100" spans="1:4" ht="15" thickBot="1">
       <c r="A100" s="3" t="s">
         <v>90</v>
       </c>
@@ -4383,7 +4394,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" thickBot="1">
+    <row r="101" spans="1:4" ht="15" thickBot="1">
       <c r="A101" s="3" t="s">
         <v>91</v>
       </c>
@@ -4397,7 +4408,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="21.75" thickBot="1">
+    <row r="102" spans="1:4" ht="21" thickBot="1">
       <c r="A102" s="3" t="s">
         <v>92</v>
       </c>
@@ -4411,7 +4422,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1">
+    <row r="103" spans="1:4" ht="15" thickBot="1">
       <c r="A103" s="3" t="s">
         <v>93</v>
       </c>
@@ -4425,7 +4436,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="21.75" thickBot="1">
+    <row r="104" spans="1:4" ht="21" thickBot="1">
       <c r="A104" s="3" t="s">
         <v>94</v>
       </c>
@@ -4439,7 +4450,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" thickBot="1">
+    <row r="105" spans="1:4" ht="15" thickBot="1">
       <c r="A105" s="3" t="s">
         <v>95</v>
       </c>
@@ -4453,7 +4464,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" thickBot="1">
+    <row r="106" spans="1:4" ht="15" thickBot="1">
       <c r="A106" s="3" t="s">
         <v>96</v>
       </c>
@@ -4467,7 +4478,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1">
+    <row r="107" spans="1:4" ht="15" thickBot="1">
       <c r="A107" s="3" t="s">
         <v>97</v>
       </c>
@@ -4481,7 +4492,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1">
+    <row r="108" spans="1:4" ht="15" thickBot="1">
       <c r="A108" s="3" t="s">
         <v>98</v>
       </c>
@@ -4495,7 +4506,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" thickBot="1">
+    <row r="109" spans="1:4" ht="15" thickBot="1">
       <c r="A109" s="3" t="s">
         <v>99</v>
       </c>
@@ -4509,7 +4520,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1">
+    <row r="110" spans="1:4" ht="15" thickBot="1">
       <c r="A110" s="3" t="s">
         <v>100</v>
       </c>
@@ -4523,7 +4534,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" thickBot="1">
+    <row r="111" spans="1:4" ht="15" thickBot="1">
       <c r="A111" s="3" t="s">
         <v>101</v>
       </c>
@@ -4537,7 +4548,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" thickBot="1">
+    <row r="112" spans="1:4" ht="15" thickBot="1">
       <c r="A112" s="3" t="s">
         <v>102</v>
       </c>
@@ -4551,7 +4562,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1">
+    <row r="113" spans="1:4" ht="15" thickBot="1">
       <c r="A113" s="3" t="s">
         <v>103</v>
       </c>
@@ -4565,7 +4576,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1">
+    <row r="114" spans="1:4" ht="15" thickBot="1">
       <c r="A114" s="3" t="s">
         <v>104</v>
       </c>
@@ -4579,7 +4590,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" thickBot="1">
+    <row r="115" spans="1:4" ht="15" thickBot="1">
       <c r="A115" s="3" t="s">
         <v>105</v>
       </c>
@@ -4593,7 +4604,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" thickBot="1">
+    <row r="116" spans="1:4" ht="15" thickBot="1">
       <c r="A116" s="3" t="s">
         <v>106</v>
       </c>
@@ -4607,7 +4618,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1">
+    <row r="117" spans="1:4" ht="15" thickBot="1">
       <c r="A117" s="3" t="s">
         <v>107</v>
       </c>
@@ -4621,7 +4632,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1">
+    <row r="118" spans="1:4" ht="15" thickBot="1">
       <c r="A118" s="3" t="s">
         <v>108</v>
       </c>
@@ -4635,7 +4646,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" thickBot="1">
+    <row r="119" spans="1:4" ht="15" thickBot="1">
       <c r="A119" s="3" t="s">
         <v>109</v>
       </c>
@@ -4649,7 +4660,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" thickBot="1">
+    <row r="120" spans="1:4" ht="15" thickBot="1">
       <c r="A120" s="3" t="s">
         <v>110</v>
       </c>
@@ -4663,7 +4674,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.75" thickBot="1">
+    <row r="121" spans="1:4" ht="15" thickBot="1">
       <c r="A121" s="3" t="s">
         <v>111</v>
       </c>
@@ -4677,7 +4688,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" thickBot="1">
+    <row r="122" spans="1:4" ht="15" thickBot="1">
       <c r="A122" s="3" t="s">
         <v>112</v>
       </c>
@@ -4691,7 +4702,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" thickBot="1">
+    <row r="123" spans="1:4" ht="15" thickBot="1">
       <c r="A123" s="3" t="s">
         <v>113</v>
       </c>
@@ -4705,7 +4716,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" thickBot="1">
+    <row r="124" spans="1:4" ht="15" thickBot="1">
       <c r="A124" s="3" t="s">
         <v>114</v>
       </c>
@@ -4719,7 +4730,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" thickBot="1">
+    <row r="125" spans="1:4" ht="15" thickBot="1">
       <c r="A125" s="3" t="s">
         <v>115</v>
       </c>
@@ -4733,7 +4744,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.75" thickBot="1">
+    <row r="126" spans="1:4" ht="15" thickBot="1">
       <c r="A126" s="3" t="s">
         <v>116</v>
       </c>
@@ -4747,7 +4758,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15.75" thickBot="1">
+    <row r="127" spans="1:4" ht="15" thickBot="1">
       <c r="A127" s="3" t="s">
         <v>117</v>
       </c>
@@ -4761,7 +4772,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15.75" thickBot="1">
+    <row r="128" spans="1:4" ht="15" thickBot="1">
       <c r="A128" s="3" t="s">
         <v>118</v>
       </c>
@@ -4775,7 +4786,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="21.75" thickBot="1">
+    <row r="129" spans="1:4" ht="15" thickBot="1">
       <c r="A129" s="3" t="s">
         <v>119</v>
       </c>
@@ -4789,7 +4800,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1">
+    <row r="130" spans="1:4" ht="15" thickBot="1">
       <c r="A130" s="3" t="s">
         <v>120</v>
       </c>
@@ -4803,7 +4814,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15.75" thickBot="1">
+    <row r="131" spans="1:4" ht="15" thickBot="1">
       <c r="A131" s="3" t="s">
         <v>121</v>
       </c>
@@ -4817,7 +4828,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15.75" thickBot="1">
+    <row r="132" spans="1:4" ht="15" thickBot="1">
       <c r="A132" s="3" t="s">
         <v>122</v>
       </c>
@@ -4831,7 +4842,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.75" thickBot="1">
+    <row r="133" spans="1:4" ht="15" thickBot="1">
       <c r="A133" s="3" t="s">
         <v>123</v>
       </c>
@@ -4845,7 +4856,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.75" thickBot="1">
+    <row r="134" spans="1:4" ht="15" thickBot="1">
       <c r="A134" s="3" t="s">
         <v>124</v>
       </c>
@@ -4859,7 +4870,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.75" thickBot="1">
+    <row r="135" spans="1:4" ht="15" thickBot="1">
       <c r="A135" s="3" t="s">
         <v>125</v>
       </c>
@@ -4873,7 +4884,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.75" thickBot="1">
+    <row r="136" spans="1:4" ht="15" thickBot="1">
       <c r="A136" s="3" t="s">
         <v>126</v>
       </c>
@@ -4887,7 +4898,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.75" thickBot="1">
+    <row r="137" spans="1:4" ht="15" thickBot="1">
       <c r="A137" s="3" t="s">
         <v>127</v>
       </c>
@@ -4901,7 +4912,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.75" thickBot="1">
+    <row r="138" spans="1:4" ht="15" thickBot="1">
       <c r="A138" s="3" t="s">
         <v>128</v>
       </c>
@@ -4915,7 +4926,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1">
+    <row r="139" spans="1:4" ht="15" thickBot="1">
       <c r="A139" s="3" t="s">
         <v>129</v>
       </c>
@@ -4929,7 +4940,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.75" thickBot="1">
+    <row r="140" spans="1:4" ht="15" thickBot="1">
       <c r="A140" s="3" t="s">
         <v>130</v>
       </c>
@@ -4943,7 +4954,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15.75" thickBot="1">
+    <row r="141" spans="1:4" ht="15" thickBot="1">
       <c r="A141" s="3" t="s">
         <v>131</v>
       </c>
@@ -4957,7 +4968,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.75" thickBot="1">
+    <row r="142" spans="1:4" ht="15" thickBot="1">
       <c r="A142" s="3" t="s">
         <v>132</v>
       </c>
@@ -4971,7 +4982,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1">
+    <row r="143" spans="1:4" ht="15" thickBot="1">
       <c r="A143" s="3" t="s">
         <v>133</v>
       </c>
@@ -4985,7 +4996,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.75" thickBot="1">
+    <row r="144" spans="1:4" ht="15" thickBot="1">
       <c r="A144" s="3" t="s">
         <v>134</v>
       </c>
@@ -4999,7 +5010,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15.75" thickBot="1">
+    <row r="145" spans="1:4" ht="15" thickBot="1">
       <c r="A145" s="1" t="s">
         <v>135</v>
       </c>
@@ -5013,7 +5024,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.75" thickBot="1">
+    <row r="146" spans="1:4" ht="15" thickBot="1">
       <c r="A146" s="3" t="s">
         <v>136</v>
       </c>
@@ -5027,7 +5038,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.75" thickBot="1">
+    <row r="147" spans="1:4" ht="15" thickBot="1">
       <c r="A147" s="3" t="s">
         <v>2</v>
       </c>
@@ -5041,7 +5052,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15.75" thickBot="1">
+    <row r="148" spans="1:4" ht="15" thickBot="1">
       <c r="A148" s="3" t="s">
         <v>3</v>
       </c>
@@ -5055,7 +5066,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1">
+    <row r="149" spans="1:4" ht="15" thickBot="1">
       <c r="A149" s="3" t="s">
         <v>137</v>
       </c>
@@ -5069,7 +5080,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15.75" thickBot="1">
+    <row r="150" spans="1:4" ht="15" thickBot="1">
       <c r="A150" s="3" t="s">
         <v>4</v>
       </c>
@@ -5083,7 +5094,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1">
+    <row r="151" spans="1:4" ht="15" thickBot="1">
       <c r="A151" s="3" t="s">
         <v>138</v>
       </c>
@@ -5097,7 +5108,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" thickBot="1">
+    <row r="152" spans="1:4" ht="15" thickBot="1">
       <c r="A152" s="3" t="s">
         <v>139</v>
       </c>
@@ -5111,7 +5122,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15.75" thickBot="1">
+    <row r="153" spans="1:4" ht="15" thickBot="1">
       <c r="A153" s="3" t="s">
         <v>140</v>
       </c>
@@ -5125,7 +5136,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1">
+    <row r="154" spans="1:4" ht="15" thickBot="1">
       <c r="A154" s="3" t="s">
         <v>6</v>
       </c>
@@ -5139,7 +5150,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15.75" thickBot="1">
+    <row r="155" spans="1:4" ht="15" thickBot="1">
       <c r="A155" s="3" t="s">
         <v>141</v>
       </c>
@@ -5153,7 +5164,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15.75" thickBot="1">
+    <row r="156" spans="1:4" ht="15" thickBot="1">
       <c r="A156" s="3" t="s">
         <v>8</v>
       </c>
@@ -5167,7 +5178,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15.75" thickBot="1">
+    <row r="157" spans="1:4" ht="15" thickBot="1">
       <c r="A157" s="3" t="s">
         <v>9</v>
       </c>
@@ -5181,7 +5192,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15.75" thickBot="1">
+    <row r="158" spans="1:4" ht="15" thickBot="1">
       <c r="A158" s="3" t="s">
         <v>11</v>
       </c>
@@ -5195,7 +5206,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15.75" thickBot="1">
+    <row r="159" spans="1:4" ht="15" thickBot="1">
       <c r="A159" s="3" t="s">
         <v>142</v>
       </c>
@@ -5209,7 +5220,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15.75" thickBot="1">
+    <row r="160" spans="1:4" ht="15" thickBot="1">
       <c r="A160" s="3" t="s">
         <v>143</v>
       </c>
@@ -5223,7 +5234,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15.75" thickBot="1">
+    <row r="161" spans="1:4" ht="15" thickBot="1">
       <c r="A161" s="3" t="s">
         <v>13</v>
       </c>
@@ -5237,7 +5248,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15.75" thickBot="1">
+    <row r="162" spans="1:4" ht="15" thickBot="1">
       <c r="A162" s="3" t="s">
         <v>144</v>
       </c>
@@ -5251,7 +5262,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15.75" thickBot="1">
+    <row r="163" spans="1:4" ht="15" thickBot="1">
       <c r="A163" s="3" t="s">
         <v>14</v>
       </c>
@@ -5265,7 +5276,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15.75" thickBot="1">
+    <row r="164" spans="1:4" ht="15" thickBot="1">
       <c r="A164" s="3" t="s">
         <v>145</v>
       </c>
@@ -5279,7 +5290,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15.75" thickBot="1">
+    <row r="165" spans="1:4" ht="15" thickBot="1">
       <c r="A165" s="3" t="s">
         <v>146</v>
       </c>
@@ -5293,7 +5304,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15.75" thickBot="1">
+    <row r="166" spans="1:4" ht="15" thickBot="1">
       <c r="A166" s="3" t="s">
         <v>147</v>
       </c>
@@ -5307,7 +5318,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.75" thickBot="1">
+    <row r="167" spans="1:4" ht="15" thickBot="1">
       <c r="A167" s="3" t="s">
         <v>19</v>
       </c>
@@ -5321,7 +5332,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15.75" thickBot="1">
+    <row r="168" spans="1:4" ht="15" thickBot="1">
       <c r="A168" s="3" t="s">
         <v>20</v>
       </c>
@@ -5335,7 +5346,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.75" thickBot="1">
+    <row r="169" spans="1:4" ht="15" thickBot="1">
       <c r="A169" s="3" t="s">
         <v>21</v>
       </c>
@@ -5349,7 +5360,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15.75" thickBot="1">
+    <row r="170" spans="1:4" ht="15" thickBot="1">
       <c r="A170" s="3" t="s">
         <v>148</v>
       </c>
@@ -5363,7 +5374,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15.75" thickBot="1">
+    <row r="171" spans="1:4" ht="15" thickBot="1">
       <c r="A171" s="3" t="s">
         <v>149</v>
       </c>
@@ -5377,7 +5388,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15.75" thickBot="1">
+    <row r="172" spans="1:4" ht="15" thickBot="1">
       <c r="A172" s="3" t="s">
         <v>150</v>
       </c>
@@ -5391,7 +5402,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15.75" thickBot="1">
+    <row r="173" spans="1:4" ht="15" thickBot="1">
       <c r="A173" s="3" t="s">
         <v>151</v>
       </c>
@@ -5405,7 +5416,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1">
+    <row r="174" spans="1:4" ht="15" thickBot="1">
       <c r="A174" s="3" t="s">
         <v>152</v>
       </c>
@@ -5419,7 +5430,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15.75" thickBot="1">
+    <row r="175" spans="1:4" ht="15" thickBot="1">
       <c r="A175" s="3" t="s">
         <v>153</v>
       </c>
@@ -5433,7 +5444,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15.75" thickBot="1">
+    <row r="176" spans="1:4" ht="15" thickBot="1">
       <c r="A176" s="3" t="s">
         <v>154</v>
       </c>
@@ -5447,7 +5458,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15.75" thickBot="1">
+    <row r="177" spans="1:4" ht="15" thickBot="1">
       <c r="A177" s="3" t="s">
         <v>155</v>
       </c>
@@ -5461,7 +5472,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1">
+    <row r="178" spans="1:4" ht="15" thickBot="1">
       <c r="A178" s="3" t="s">
         <v>156</v>
       </c>
@@ -5475,7 +5486,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15.75" thickBot="1">
+    <row r="179" spans="1:4" ht="15" thickBot="1">
       <c r="A179" s="3" t="s">
         <v>148</v>
       </c>
@@ -5489,7 +5500,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15.75" thickBot="1">
+    <row r="180" spans="1:4" ht="15" thickBot="1">
       <c r="A180" s="3" t="s">
         <v>157</v>
       </c>
@@ -5503,7 +5514,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15.75" thickBot="1">
+    <row r="181" spans="1:4" ht="15" thickBot="1">
       <c r="A181" s="3" t="s">
         <v>158</v>
       </c>
@@ -5517,7 +5528,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15.75" thickBot="1">
+    <row r="182" spans="1:4" ht="15" thickBot="1">
       <c r="A182" s="3" t="s">
         <v>159</v>
       </c>
@@ -5531,7 +5542,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15.75" thickBot="1">
+    <row r="183" spans="1:4" ht="15" thickBot="1">
       <c r="A183" s="3" t="s">
         <v>160</v>
       </c>
@@ -5545,7 +5556,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15.75" thickBot="1">
+    <row r="184" spans="1:4" ht="15" thickBot="1">
       <c r="A184" s="3" t="s">
         <v>28</v>
       </c>
@@ -5559,7 +5570,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15.75" thickBot="1">
+    <row r="185" spans="1:4" ht="15" thickBot="1">
       <c r="A185" s="3" t="s">
         <v>161</v>
       </c>
@@ -5573,7 +5584,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15.75" thickBot="1">
+    <row r="186" spans="1:4" ht="15" thickBot="1">
       <c r="A186" s="3" t="s">
         <v>30</v>
       </c>
@@ -5587,7 +5598,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15.75" thickBot="1">
+    <row r="187" spans="1:4" ht="15" thickBot="1">
       <c r="A187" s="3" t="s">
         <v>162</v>
       </c>
@@ -5601,7 +5612,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1">
+    <row r="188" spans="1:4" ht="15" thickBot="1">
       <c r="A188" s="3" t="s">
         <v>163</v>
       </c>
@@ -5615,7 +5626,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15.75" thickBot="1">
+    <row r="189" spans="1:4" ht="15" thickBot="1">
       <c r="A189" s="3" t="s">
         <v>33</v>
       </c>
@@ -5629,7 +5640,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15.75" thickBot="1">
+    <row r="190" spans="1:4" ht="15" thickBot="1">
       <c r="A190" s="3" t="s">
         <v>164</v>
       </c>
@@ -5643,7 +5654,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15.75" thickBot="1">
+    <row r="191" spans="1:4" ht="15" thickBot="1">
       <c r="A191" s="3" t="s">
         <v>165</v>
       </c>
@@ -5657,7 +5668,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15.75" thickBot="1">
+    <row r="192" spans="1:4" ht="15" thickBot="1">
       <c r="A192" s="3" t="s">
         <v>166</v>
       </c>
@@ -5671,7 +5682,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15.75" thickBot="1">
+    <row r="193" spans="1:4" ht="15" thickBot="1">
       <c r="A193" s="3" t="s">
         <v>167</v>
       </c>
@@ -5685,7 +5696,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15.75" thickBot="1">
+    <row r="194" spans="1:4" ht="15" thickBot="1">
       <c r="A194" s="3" t="s">
         <v>168</v>
       </c>
@@ -5699,7 +5710,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15.75" thickBot="1">
+    <row r="195" spans="1:4" ht="15" thickBot="1">
       <c r="A195" s="3" t="s">
         <v>169</v>
       </c>
@@ -5713,7 +5724,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15.75" thickBot="1">
+    <row r="196" spans="1:4" ht="15" thickBot="1">
       <c r="A196" s="3" t="s">
         <v>170</v>
       </c>
@@ -5727,7 +5738,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15.75" thickBot="1">
+    <row r="197" spans="1:4" ht="15" thickBot="1">
       <c r="A197" s="3" t="s">
         <v>171</v>
       </c>
@@ -5741,7 +5752,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15.75" thickBot="1">
+    <row r="198" spans="1:4" ht="15" thickBot="1">
       <c r="A198" s="3" t="s">
         <v>172</v>
       </c>
@@ -5755,7 +5766,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15.75" thickBot="1">
+    <row r="199" spans="1:4" ht="15" thickBot="1">
       <c r="A199" s="3" t="s">
         <v>165</v>
       </c>
@@ -5769,7 +5780,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15.75" thickBot="1">
+    <row r="200" spans="1:4" ht="15" thickBot="1">
       <c r="A200" s="3" t="s">
         <v>173</v>
       </c>
@@ -5783,7 +5794,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15.75" thickBot="1">
+    <row r="201" spans="1:4" ht="15" thickBot="1">
       <c r="A201" s="3" t="s">
         <v>174</v>
       </c>
@@ -5797,7 +5808,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15.75" thickBot="1">
+    <row r="202" spans="1:4" ht="15" thickBot="1">
       <c r="A202" s="3" t="s">
         <v>175</v>
       </c>
@@ -5811,7 +5822,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15.75" thickBot="1">
+    <row r="203" spans="1:4" ht="15" thickBot="1">
       <c r="A203" s="3" t="s">
         <v>239</v>
       </c>
@@ -5825,7 +5836,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15.75" thickBot="1">
+    <row r="204" spans="1:4" ht="15" thickBot="1">
       <c r="A204" s="3" t="s">
         <v>157</v>
       </c>
@@ -5839,7 +5850,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15.75" thickBot="1">
+    <row r="205" spans="1:4" ht="15" thickBot="1">
       <c r="A205" s="3" t="s">
         <v>176</v>
       </c>
@@ -5853,7 +5864,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15.75" thickBot="1">
+    <row r="206" spans="1:4" ht="15" thickBot="1">
       <c r="A206" s="3" t="s">
         <v>38</v>
       </c>
@@ -5867,7 +5878,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15.75" thickBot="1">
+    <row r="207" spans="1:4" ht="15" thickBot="1">
       <c r="A207" s="3" t="s">
         <v>177</v>
       </c>
@@ -5881,7 +5892,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15.75" thickBot="1">
+    <row r="208" spans="1:4" ht="15" thickBot="1">
       <c r="A208" s="3" t="s">
         <v>40</v>
       </c>
@@ -5895,7 +5906,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15.75" thickBot="1">
+    <row r="209" spans="1:4" ht="15" thickBot="1">
       <c r="A209" s="3" t="s">
         <v>163</v>
       </c>
@@ -5909,7 +5920,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15.75" thickBot="1">
+    <row r="210" spans="1:4" ht="15" thickBot="1">
       <c r="A210" s="3" t="s">
         <v>178</v>
       </c>
@@ -5923,7 +5934,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15.75" thickBot="1">
+    <row r="211" spans="1:4" ht="15" thickBot="1">
       <c r="A211" s="3" t="s">
         <v>41</v>
       </c>
@@ -5937,7 +5948,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15.75" thickBot="1">
+    <row r="212" spans="1:4" ht="15" thickBot="1">
       <c r="A212" s="3" t="s">
         <v>179</v>
       </c>
@@ -5951,7 +5962,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15.75" thickBot="1">
+    <row r="213" spans="1:4" ht="15" thickBot="1">
       <c r="A213" s="3" t="s">
         <v>42</v>
       </c>
@@ -5965,7 +5976,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15.75" thickBot="1">
+    <row r="214" spans="1:4" ht="15" thickBot="1">
       <c r="A214" s="3" t="s">
         <v>164</v>
       </c>
@@ -5979,7 +5990,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15.75" thickBot="1">
+    <row r="215" spans="1:4" ht="15" thickBot="1">
       <c r="A215" s="3" t="s">
         <v>43</v>
       </c>
@@ -5993,7 +6004,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15.75" thickBot="1">
+    <row r="216" spans="1:4" ht="15" thickBot="1">
       <c r="A216" s="3" t="s">
         <v>180</v>
       </c>
@@ -6007,7 +6018,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15.75" thickBot="1">
+    <row r="217" spans="1:4" ht="15" thickBot="1">
       <c r="A217" s="3" t="s">
         <v>181</v>
       </c>
@@ -6021,7 +6032,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15.75" thickBot="1">
+    <row r="218" spans="1:4" ht="15" thickBot="1">
       <c r="A218" s="3" t="s">
         <v>44</v>
       </c>
@@ -6035,7 +6046,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15.75" thickBot="1">
+    <row r="219" spans="1:4" ht="15" thickBot="1">
       <c r="A219" s="3" t="s">
         <v>45</v>
       </c>
@@ -6049,7 +6060,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15.75" thickBot="1">
+    <row r="220" spans="1:4" ht="15" thickBot="1">
       <c r="A220" s="3" t="s">
         <v>182</v>
       </c>
@@ -6063,7 +6074,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15.75" thickBot="1">
+    <row r="221" spans="1:4" ht="15" thickBot="1">
       <c r="A221" s="3" t="s">
         <v>183</v>
       </c>
@@ -6077,7 +6088,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15.75" thickBot="1">
+    <row r="222" spans="1:4" ht="15" thickBot="1">
       <c r="A222" s="3" t="s">
         <v>184</v>
       </c>
@@ -6091,7 +6102,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15.75" thickBot="1">
+    <row r="223" spans="1:4" ht="15" thickBot="1">
       <c r="A223" s="3" t="s">
         <v>185</v>
       </c>
@@ -6105,7 +6116,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15.75" thickBot="1">
+    <row r="224" spans="1:4" ht="15" thickBot="1">
       <c r="A224" s="3" t="s">
         <v>47</v>
       </c>
@@ -6119,7 +6130,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15.75" thickBot="1">
+    <row r="225" spans="1:4" ht="15" thickBot="1">
       <c r="A225" s="3" t="s">
         <v>49</v>
       </c>
@@ -6133,7 +6144,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15.75" thickBot="1">
+    <row r="226" spans="1:4" ht="15" thickBot="1">
       <c r="A226" s="3" t="s">
         <v>186</v>
       </c>
@@ -6147,7 +6158,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15.75" thickBot="1">
+    <row r="227" spans="1:4" ht="15" thickBot="1">
       <c r="A227" s="3" t="s">
         <v>51</v>
       </c>
@@ -6161,7 +6172,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15.75" thickBot="1">
+    <row r="228" spans="1:4" ht="15" thickBot="1">
       <c r="A228" s="3" t="s">
         <v>28</v>
       </c>
@@ -6175,7 +6186,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15.75" thickBot="1">
+    <row r="229" spans="1:4" ht="15" thickBot="1">
       <c r="A229" s="3" t="s">
         <v>52</v>
       </c>
@@ -6189,7 +6200,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15.75" thickBot="1">
+    <row r="230" spans="1:4" ht="15" thickBot="1">
       <c r="A230" s="3" t="s">
         <v>53</v>
       </c>
@@ -6203,7 +6214,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15.75" thickBot="1">
+    <row r="231" spans="1:4" ht="15" thickBot="1">
       <c r="A231" s="3" t="s">
         <v>187</v>
       </c>
@@ -6217,7 +6228,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15.75" thickBot="1">
+    <row r="232" spans="1:4" ht="15" thickBot="1">
       <c r="A232" s="3" t="s">
         <v>28</v>
       </c>
@@ -6231,7 +6242,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15.75" thickBot="1">
+    <row r="233" spans="1:4" ht="15" thickBot="1">
       <c r="A233" s="3" t="s">
         <v>188</v>
       </c>
@@ -6245,7 +6256,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15.75" thickBot="1">
+    <row r="234" spans="1:4" ht="15" thickBot="1">
       <c r="A234" s="3" t="s">
         <v>189</v>
       </c>
@@ -6259,7 +6270,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15.75" thickBot="1">
+    <row r="235" spans="1:4" ht="15" thickBot="1">
       <c r="A235" s="3" t="s">
         <v>190</v>
       </c>
@@ -6273,7 +6284,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15.75" thickBot="1">
+    <row r="236" spans="1:4" ht="15" thickBot="1">
       <c r="A236" s="3" t="s">
         <v>191</v>
       </c>
@@ -6287,7 +6298,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15.75" thickBot="1">
+    <row r="237" spans="1:4" ht="15" thickBot="1">
       <c r="A237" s="3" t="s">
         <v>192</v>
       </c>
@@ -6301,7 +6312,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15.75" thickBot="1">
+    <row r="238" spans="1:4" ht="15" thickBot="1">
       <c r="A238" s="3" t="s">
         <v>193</v>
       </c>
@@ -6315,7 +6326,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15.75" thickBot="1">
+    <row r="239" spans="1:4" ht="15" thickBot="1">
       <c r="A239" s="3" t="s">
         <v>194</v>
       </c>
@@ -6329,7 +6340,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15.75" thickBot="1">
+    <row r="240" spans="1:4" ht="15" thickBot="1">
       <c r="A240" s="3" t="s">
         <v>195</v>
       </c>
@@ -6343,7 +6354,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15.75" thickBot="1">
+    <row r="241" spans="1:4" ht="15" thickBot="1">
       <c r="A241" s="3" t="s">
         <v>196</v>
       </c>
@@ -6357,7 +6368,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15.75" thickBot="1">
+    <row r="242" spans="1:4" ht="15" thickBot="1">
       <c r="A242" s="3" t="s">
         <v>197</v>
       </c>
@@ -6371,7 +6382,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15.75" thickBot="1">
+    <row r="243" spans="1:4" ht="15" thickBot="1">
       <c r="A243" s="3" t="s">
         <v>59</v>
       </c>
@@ -6385,7 +6396,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15.75" thickBot="1">
+    <row r="244" spans="1:4" ht="15" thickBot="1">
       <c r="A244" s="3" t="s">
         <v>198</v>
       </c>
@@ -6399,7 +6410,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15.75" thickBot="1">
+    <row r="245" spans="1:4" ht="15" thickBot="1">
       <c r="A245" s="3" t="s">
         <v>199</v>
       </c>
@@ -6413,7 +6424,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15.75" thickBot="1">
+    <row r="246" spans="1:4" ht="15" thickBot="1">
       <c r="A246" s="3" t="s">
         <v>200</v>
       </c>
@@ -6427,7 +6438,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15.75" thickBot="1">
+    <row r="247" spans="1:4" ht="15" thickBot="1">
       <c r="A247" s="3" t="s">
         <v>201</v>
       </c>
@@ -6441,7 +6452,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15.75" thickBot="1">
+    <row r="248" spans="1:4" ht="15" thickBot="1">
       <c r="A248" s="3" t="s">
         <v>202</v>
       </c>
@@ -6455,7 +6466,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15.75" thickBot="1">
+    <row r="249" spans="1:4" ht="15" thickBot="1">
       <c r="A249" s="3" t="s">
         <v>203</v>
       </c>
@@ -6469,7 +6480,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15.75" thickBot="1">
+    <row r="250" spans="1:4" ht="15" thickBot="1">
       <c r="A250" s="3" t="s">
         <v>204</v>
       </c>
@@ -6483,7 +6494,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15.75" thickBot="1">
+    <row r="251" spans="1:4" ht="15" thickBot="1">
       <c r="A251" s="3" t="s">
         <v>64</v>
       </c>
@@ -6497,7 +6508,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15.75" thickBot="1">
+    <row r="252" spans="1:4" ht="15" thickBot="1">
       <c r="A252" s="3" t="s">
         <v>240</v>
       </c>
@@ -6511,7 +6522,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15.75" thickBot="1">
+    <row r="253" spans="1:4" ht="15" thickBot="1">
       <c r="A253" s="3" t="s">
         <v>205</v>
       </c>
@@ -6525,7 +6536,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15.75" thickBot="1">
+    <row r="254" spans="1:4" ht="15" thickBot="1">
       <c r="A254" s="3" t="s">
         <v>206</v>
       </c>
@@ -6539,7 +6550,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15.75" thickBot="1">
+    <row r="255" spans="1:4" ht="15" thickBot="1">
       <c r="A255" s="3" t="s">
         <v>207</v>
       </c>
@@ -6553,7 +6564,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15.75" thickBot="1">
+    <row r="256" spans="1:4" ht="15" thickBot="1">
       <c r="A256" s="3" t="s">
         <v>208</v>
       </c>
@@ -6567,7 +6578,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15.75" thickBot="1">
+    <row r="257" spans="1:4" ht="15" thickBot="1">
       <c r="A257" s="3" t="s">
         <v>209</v>
       </c>
@@ -6581,7 +6592,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15.75" thickBot="1">
+    <row r="258" spans="1:4" ht="15" thickBot="1">
       <c r="A258" s="3" t="s">
         <v>210</v>
       </c>
@@ -6595,7 +6606,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15.75" thickBot="1">
+    <row r="259" spans="1:4" ht="15" thickBot="1">
       <c r="A259" s="3" t="s">
         <v>211</v>
       </c>
@@ -6609,7 +6620,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15.75" thickBot="1">
+    <row r="260" spans="1:4" ht="15" thickBot="1">
       <c r="A260" s="3" t="s">
         <v>212</v>
       </c>
@@ -6623,7 +6634,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15.75" thickBot="1">
+    <row r="261" spans="1:4" ht="15" thickBot="1">
       <c r="A261" s="3" t="s">
         <v>67</v>
       </c>
@@ -6637,7 +6648,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15.75" thickBot="1">
+    <row r="262" spans="1:4" ht="15" thickBot="1">
       <c r="A262" s="3" t="s">
         <v>213</v>
       </c>
@@ -6651,7 +6662,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15.75" thickBot="1">
+    <row r="263" spans="1:4" ht="15" thickBot="1">
       <c r="A263" s="3" t="s">
         <v>214</v>
       </c>
@@ -6665,7 +6676,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15.75" thickBot="1">
+    <row r="264" spans="1:4" ht="15" thickBot="1">
       <c r="A264" s="3" t="s">
         <v>215</v>
       </c>
@@ -6679,7 +6690,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15.75" thickBot="1">
+    <row r="265" spans="1:4" ht="15" thickBot="1">
       <c r="A265" s="3" t="s">
         <v>216</v>
       </c>
@@ -6693,7 +6704,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15.75" thickBot="1">
+    <row r="266" spans="1:4" ht="15" thickBot="1">
       <c r="A266" s="3" t="s">
         <v>217</v>
       </c>
@@ -6707,7 +6718,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15.75" thickBot="1">
+    <row r="267" spans="1:4" ht="15" thickBot="1">
       <c r="A267" s="3" t="s">
         <v>218</v>
       </c>
@@ -6721,7 +6732,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15.75" thickBot="1">
+    <row r="268" spans="1:4" ht="15" thickBot="1">
       <c r="A268" s="3" t="s">
         <v>219</v>
       </c>
@@ -6735,7 +6746,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15.75" thickBot="1">
+    <row r="269" spans="1:4" ht="15" thickBot="1">
       <c r="A269" s="3" t="s">
         <v>220</v>
       </c>
@@ -6749,7 +6760,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15.75" thickBot="1">
+    <row r="270" spans="1:4" ht="15" thickBot="1">
       <c r="A270" s="3" t="s">
         <v>221</v>
       </c>
@@ -6763,7 +6774,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15.75" thickBot="1">
+    <row r="271" spans="1:4" ht="15" thickBot="1">
       <c r="A271" s="3" t="s">
         <v>71</v>
       </c>
@@ -6777,7 +6788,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15.75" thickBot="1">
+    <row r="272" spans="1:4" ht="15" thickBot="1">
       <c r="A272" s="3" t="s">
         <v>222</v>
       </c>
@@ -6791,7 +6802,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15.75" thickBot="1">
+    <row r="273" spans="1:4" ht="15" thickBot="1">
       <c r="A273" s="3" t="s">
         <v>223</v>
       </c>
@@ -6805,7 +6816,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15.75" thickBot="1">
+    <row r="274" spans="1:4" ht="15" thickBot="1">
       <c r="A274" s="3" t="s">
         <v>224</v>
       </c>
@@ -6819,7 +6830,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15.75" thickBot="1">
+    <row r="275" spans="1:4" ht="15" thickBot="1">
       <c r="A275" s="3" t="s">
         <v>48</v>
       </c>
@@ -6833,7 +6844,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15.75" thickBot="1">
+    <row r="276" spans="1:4" ht="15" thickBot="1">
       <c r="A276" s="3" t="s">
         <v>225</v>
       </c>
@@ -6847,7 +6858,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15.75" thickBot="1">
+    <row r="277" spans="1:4" ht="15" thickBot="1">
       <c r="A277" s="3" t="s">
         <v>226</v>
       </c>
@@ -6861,7 +6872,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15.75" thickBot="1">
+    <row r="278" spans="1:4" ht="15" thickBot="1">
       <c r="A278" s="3" t="s">
         <v>227</v>
       </c>
@@ -6875,7 +6886,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15.75" thickBot="1">
+    <row r="279" spans="1:4" ht="15" thickBot="1">
       <c r="A279" s="3" t="s">
         <v>74</v>
       </c>
@@ -6889,7 +6900,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15.75" thickBot="1">
+    <row r="280" spans="1:4" ht="15" thickBot="1">
       <c r="A280" s="3" t="s">
         <v>228</v>
       </c>
@@ -6903,7 +6914,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15.75" thickBot="1">
+    <row r="281" spans="1:4" ht="15" thickBot="1">
       <c r="A281" s="3" t="s">
         <v>229</v>
       </c>
@@ -6917,7 +6928,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15.75" thickBot="1">
+    <row r="282" spans="1:4" ht="15" thickBot="1">
       <c r="A282" s="3" t="s">
         <v>76</v>
       </c>
@@ -6931,7 +6942,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15.75" thickBot="1">
+    <row r="283" spans="1:4" ht="15" thickBot="1">
       <c r="A283" s="3" t="s">
         <v>77</v>
       </c>
@@ -8945,6 +8956,20 @@
       </c>
       <c r="D426">
         <v>3.8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" t="s">
+        <v>829</v>
+      </c>
+      <c r="B427" s="24">
+        <v>3</v>
+      </c>
+      <c r="C427" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D427">
+        <v>2.4500000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -8957,14 +8982,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3E1BA-13EA-4FE4-B188-0588AB1645EA}">
   <dimension ref="A1:E437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="M424" sqref="M424"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="68.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8984,7 +9009,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="15" thickBot="1">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -9001,7 +9026,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="15" thickBot="1">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -9018,7 +9043,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+    <row r="4" spans="1:5" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -9035,7 +9060,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+    <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -9052,7 +9077,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
@@ -9069,7 +9094,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+    <row r="7" spans="1:5" ht="15" thickBot="1">
       <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
@@ -9086,7 +9111,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="15" thickBot="1">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -9103,7 +9128,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+    <row r="9" spans="1:5" ht="15" thickBot="1">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -9120,7 +9145,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+    <row r="10" spans="1:5" ht="15" thickBot="1">
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
@@ -9137,7 +9162,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+    <row r="11" spans="1:5" ht="15" thickBot="1">
       <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
@@ -9154,7 +9179,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+    <row r="12" spans="1:5" ht="15" thickBot="1">
       <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
@@ -9171,7 +9196,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:5" ht="15" thickBot="1">
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
@@ -9188,7 +9213,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+    <row r="14" spans="1:5" ht="15" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>1</v>
       </c>
@@ -9205,7 +9230,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+    <row r="15" spans="1:5" ht="15" thickBot="1">
       <c r="A15" s="12" t="s">
         <v>1</v>
       </c>
@@ -9222,7 +9247,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+    <row r="16" spans="1:5" ht="15" thickBot="1">
       <c r="A16" s="12" t="s">
         <v>1</v>
       </c>
@@ -9239,7 +9264,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+    <row r="17" spans="1:5" ht="15" thickBot="1">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -9256,7 +9281,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+    <row r="18" spans="1:5" ht="15" thickBot="1">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -9273,7 +9298,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+    <row r="19" spans="1:5" ht="15" thickBot="1">
       <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
@@ -9290,7 +9315,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+    <row r="20" spans="1:5" ht="15" thickBot="1">
       <c r="A20" s="12" t="s">
         <v>1</v>
       </c>
@@ -9307,7 +9332,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1">
+    <row r="21" spans="1:5" ht="15" thickBot="1">
       <c r="A21" s="12" t="s">
         <v>1</v>
       </c>
@@ -9324,7 +9349,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+    <row r="22" spans="1:5" ht="15" thickBot="1">
       <c r="A22" s="12" t="s">
         <v>1</v>
       </c>
@@ -9341,7 +9366,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1">
+    <row r="23" spans="1:5" ht="15" thickBot="1">
       <c r="A23" s="12" t="s">
         <v>56</v>
       </c>
@@ -9375,7 +9400,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1">
+    <row r="25" spans="1:5" ht="15" thickBot="1">
       <c r="A25" s="18" t="s">
         <v>56</v>
       </c>
@@ -9392,7 +9417,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+    <row r="26" spans="1:5" ht="15" thickBot="1">
       <c r="A26" s="9" t="s">
         <v>56</v>
       </c>
@@ -9409,7 +9434,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+    <row r="27" spans="1:5" ht="15" thickBot="1">
       <c r="A27" s="12" t="s">
         <v>56</v>
       </c>
@@ -9426,7 +9451,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+    <row r="28" spans="1:5" ht="15" thickBot="1">
       <c r="A28" s="12" t="s">
         <v>56</v>
       </c>
@@ -9443,7 +9468,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1">
+    <row r="29" spans="1:5" ht="15" thickBot="1">
       <c r="A29" s="12" t="s">
         <v>56</v>
       </c>
@@ -9460,7 +9485,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1">
+    <row r="30" spans="1:5" ht="15" thickBot="1">
       <c r="A30" s="12" t="s">
         <v>56</v>
       </c>
@@ -9477,7 +9502,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1">
+    <row r="31" spans="1:5" ht="15" thickBot="1">
       <c r="A31" s="12" t="s">
         <v>56</v>
       </c>
@@ -9494,7 +9519,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+    <row r="32" spans="1:5" ht="15" thickBot="1">
       <c r="A32" s="12" t="s">
         <v>56</v>
       </c>
@@ -9511,7 +9536,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1">
+    <row r="33" spans="1:5" ht="15" thickBot="1">
       <c r="A33" s="12" t="s">
         <v>56</v>
       </c>
@@ -9526,7 +9551,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1">
+    <row r="34" spans="1:5" ht="15" thickBot="1">
       <c r="A34" s="12" t="s">
         <v>56</v>
       </c>
@@ -9543,7 +9568,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1">
+    <row r="35" spans="1:5" ht="15" thickBot="1">
       <c r="A35" s="12" t="s">
         <v>56</v>
       </c>
@@ -9560,7 +9585,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+    <row r="36" spans="1:5" ht="15" thickBot="1">
       <c r="A36" s="12" t="s">
         <v>56</v>
       </c>
@@ -9577,7 +9602,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1">
+    <row r="37" spans="1:5" ht="15" thickBot="1">
       <c r="A37" s="12" t="s">
         <v>56</v>
       </c>
@@ -9594,7 +9619,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+    <row r="38" spans="1:5" ht="15" thickBot="1">
       <c r="A38" s="12" t="s">
         <v>56</v>
       </c>
@@ -9611,7 +9636,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+    <row r="39" spans="1:5" ht="15" thickBot="1">
       <c r="A39" s="12" t="s">
         <v>56</v>
       </c>
@@ -9628,7 +9653,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1">
+    <row r="40" spans="1:5" ht="15" thickBot="1">
       <c r="A40" s="12" t="s">
         <v>56</v>
       </c>
@@ -9645,7 +9670,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1">
+    <row r="41" spans="1:5" ht="15" thickBot="1">
       <c r="A41" s="12" t="s">
         <v>56</v>
       </c>
@@ -9662,7 +9687,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1">
+    <row r="42" spans="1:5" ht="15" thickBot="1">
       <c r="A42" s="12" t="s">
         <v>56</v>
       </c>
@@ -9679,7 +9704,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1">
+    <row r="43" spans="1:5" ht="15" thickBot="1">
       <c r="A43" s="12" t="s">
         <v>56</v>
       </c>
@@ -9696,7 +9721,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1">
+    <row r="44" spans="1:5" ht="15" thickBot="1">
       <c r="A44" s="12" t="s">
         <v>56</v>
       </c>
@@ -9713,7 +9738,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1">
+    <row r="45" spans="1:5" ht="15" thickBot="1">
       <c r="A45" s="12" t="s">
         <v>56</v>
       </c>
@@ -9730,7 +9755,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1">
+    <row r="46" spans="1:5" ht="15" thickBot="1">
       <c r="A46" s="12" t="s">
         <v>56</v>
       </c>
@@ -9747,7 +9772,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1">
+    <row r="47" spans="1:5" ht="15" thickBot="1">
       <c r="A47" s="12" t="s">
         <v>56</v>
       </c>
@@ -9764,7 +9789,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1">
+    <row r="48" spans="1:5" ht="15" thickBot="1">
       <c r="A48" s="12" t="s">
         <v>56</v>
       </c>
@@ -9781,7 +9806,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+    <row r="49" spans="1:5" ht="15" thickBot="1">
       <c r="A49" s="12" t="s">
         <v>56</v>
       </c>
@@ -9798,7 +9823,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+    <row r="50" spans="1:5" ht="15" thickBot="1">
       <c r="A50" s="12" t="s">
         <v>56</v>
       </c>
@@ -9815,7 +9840,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1">
+    <row r="51" spans="1:5" ht="15" thickBot="1">
       <c r="A51" s="12" t="s">
         <v>56</v>
       </c>
@@ -9832,7 +9857,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1">
+    <row r="52" spans="1:5" ht="15" thickBot="1">
       <c r="A52" s="12" t="s">
         <v>56</v>
       </c>
@@ -9849,7 +9874,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1">
+    <row r="53" spans="1:5" ht="15" thickBot="1">
       <c r="A53" s="12" t="s">
         <v>56</v>
       </c>
@@ -9866,7 +9891,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1">
+    <row r="54" spans="1:5" ht="15" thickBot="1">
       <c r="A54" s="12" t="s">
         <v>56</v>
       </c>
@@ -9883,7 +9908,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1">
+    <row r="55" spans="1:5" ht="15" thickBot="1">
       <c r="A55" s="12" t="s">
         <v>56</v>
       </c>
@@ -9900,7 +9925,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1">
+    <row r="56" spans="1:5" ht="15" thickBot="1">
       <c r="A56" s="12" t="s">
         <v>56</v>
       </c>
@@ -9917,7 +9942,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1">
+    <row r="57" spans="1:5" ht="15" thickBot="1">
       <c r="A57" s="12" t="s">
         <v>56</v>
       </c>
@@ -9934,7 +9959,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1">
+    <row r="58" spans="1:5" ht="15" thickBot="1">
       <c r="A58" s="12" t="s">
         <v>56</v>
       </c>
@@ -9951,7 +9976,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1">
+    <row r="59" spans="1:5" ht="15" thickBot="1">
       <c r="A59" s="12" t="s">
         <v>56</v>
       </c>
@@ -9968,7 +9993,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1">
+    <row r="60" spans="1:5" ht="15" thickBot="1">
       <c r="A60" s="12" t="s">
         <v>56</v>
       </c>
@@ -9985,7 +10010,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1">
+    <row r="61" spans="1:5" ht="15" thickBot="1">
       <c r="A61" s="12" t="s">
         <v>56</v>
       </c>
@@ -10002,7 +10027,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1">
+    <row r="62" spans="1:5" ht="15" thickBot="1">
       <c r="A62" s="12" t="s">
         <v>56</v>
       </c>
@@ -10019,7 +10044,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1">
+    <row r="63" spans="1:5" ht="15" thickBot="1">
       <c r="A63" s="12" t="s">
         <v>56</v>
       </c>
@@ -10036,7 +10061,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1">
+    <row r="64" spans="1:5" ht="15" thickBot="1">
       <c r="A64" s="12" t="s">
         <v>56</v>
       </c>
@@ -10053,7 +10078,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1">
+    <row r="65" spans="1:5" ht="15" thickBot="1">
       <c r="A65" s="12" t="s">
         <v>56</v>
       </c>
@@ -10070,7 +10095,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1">
+    <row r="66" spans="1:5" ht="15" thickBot="1">
       <c r="A66" s="12" t="s">
         <v>56</v>
       </c>
@@ -10087,7 +10112,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1">
+    <row r="67" spans="1:5" ht="15" thickBot="1">
       <c r="A67" s="12" t="s">
         <v>56</v>
       </c>
@@ -10104,7 +10129,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1">
+    <row r="68" spans="1:5" ht="15" thickBot="1">
       <c r="A68" s="12" t="s">
         <v>56</v>
       </c>
@@ -10121,7 +10146,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1">
+    <row r="69" spans="1:5" ht="15" thickBot="1">
       <c r="A69" s="12" t="s">
         <v>56</v>
       </c>
@@ -10138,7 +10163,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1">
+    <row r="70" spans="1:5" ht="15" thickBot="1">
       <c r="A70" s="12" t="s">
         <v>56</v>
       </c>
@@ -10155,7 +10180,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1">
+    <row r="71" spans="1:5" ht="15" thickBot="1">
       <c r="A71" s="12" t="s">
         <v>56</v>
       </c>
@@ -10172,7 +10197,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1">
+    <row r="72" spans="1:5" ht="15" thickBot="1">
       <c r="A72" s="12" t="s">
         <v>56</v>
       </c>
@@ -10189,7 +10214,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1">
+    <row r="73" spans="1:5" ht="15" thickBot="1">
       <c r="A73" s="12" t="s">
         <v>56</v>
       </c>
@@ -10206,7 +10231,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1">
+    <row r="74" spans="1:5" ht="15" thickBot="1">
       <c r="A74" s="12" t="s">
         <v>56</v>
       </c>
@@ -10223,7 +10248,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1">
+    <row r="75" spans="1:5" ht="15" thickBot="1">
       <c r="A75" s="12" t="s">
         <v>56</v>
       </c>
@@ -10240,7 +10265,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1">
+    <row r="76" spans="1:5" ht="15" thickBot="1">
       <c r="A76" s="12" t="s">
         <v>56</v>
       </c>
@@ -10257,7 +10282,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1">
+    <row r="77" spans="1:5" ht="15" thickBot="1">
       <c r="A77" s="12" t="s">
         <v>56</v>
       </c>
@@ -10274,7 +10299,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1">
+    <row r="78" spans="1:5" ht="15" thickBot="1">
       <c r="A78" s="12" t="s">
         <v>56</v>
       </c>
@@ -10291,7 +10316,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1">
+    <row r="79" spans="1:5" ht="15" thickBot="1">
       <c r="A79" s="12" t="s">
         <v>56</v>
       </c>
@@ -10308,7 +10333,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1">
+    <row r="80" spans="1:5" ht="15" thickBot="1">
       <c r="A80" s="12" t="s">
         <v>56</v>
       </c>
@@ -10325,7 +10350,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1">
+    <row r="81" spans="1:5" ht="15" thickBot="1">
       <c r="A81" s="12" t="s">
         <v>56</v>
       </c>
@@ -10342,7 +10367,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1">
+    <row r="82" spans="1:5" ht="15" thickBot="1">
       <c r="A82" s="12" t="s">
         <v>56</v>
       </c>
@@ -10359,7 +10384,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1">
+    <row r="83" spans="1:5" ht="15" thickBot="1">
       <c r="A83" s="12" t="s">
         <v>56</v>
       </c>
@@ -10376,7 +10401,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1">
+    <row r="84" spans="1:5" ht="15" thickBot="1">
       <c r="A84" s="12" t="s">
         <v>56</v>
       </c>
@@ -10393,7 +10418,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1">
+    <row r="85" spans="1:5" ht="15" thickBot="1">
       <c r="A85" s="12" t="s">
         <v>56</v>
       </c>
@@ -10410,7 +10435,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1">
+    <row r="86" spans="1:5" ht="15" thickBot="1">
       <c r="A86" s="12" t="s">
         <v>56</v>
       </c>
@@ -10427,7 +10452,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1">
+    <row r="87" spans="1:5" ht="15" thickBot="1">
       <c r="A87" s="12" t="s">
         <v>56</v>
       </c>
@@ -10444,7 +10469,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1">
+    <row r="88" spans="1:5" ht="15" thickBot="1">
       <c r="A88" s="12" t="s">
         <v>56</v>
       </c>
@@ -10461,7 +10486,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1">
+    <row r="89" spans="1:5" ht="15" thickBot="1">
       <c r="A89" s="12" t="s">
         <v>56</v>
       </c>
@@ -10478,7 +10503,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1">
+    <row r="90" spans="1:5" ht="15" thickBot="1">
       <c r="A90" s="12" t="s">
         <v>56</v>
       </c>
@@ -10495,7 +10520,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1">
+    <row r="91" spans="1:5" ht="15" thickBot="1">
       <c r="A91" s="12" t="s">
         <v>56</v>
       </c>
@@ -10512,7 +10537,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1">
+    <row r="92" spans="1:5" ht="15" thickBot="1">
       <c r="A92" s="12" t="s">
         <v>56</v>
       </c>
@@ -10529,7 +10554,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1">
+    <row r="93" spans="1:5" ht="15" thickBot="1">
       <c r="A93" s="12" t="s">
         <v>56</v>
       </c>
@@ -10546,7 +10571,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1">
+    <row r="94" spans="1:5" ht="15" thickBot="1">
       <c r="A94" s="12" t="s">
         <v>56</v>
       </c>
@@ -10563,7 +10588,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1">
+    <row r="95" spans="1:5" ht="15" thickBot="1">
       <c r="A95" s="12" t="s">
         <v>56</v>
       </c>
@@ -10580,7 +10605,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1">
+    <row r="96" spans="1:5" ht="15" thickBot="1">
       <c r="A96" s="12" t="s">
         <v>56</v>
       </c>
@@ -10597,7 +10622,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1">
+    <row r="97" spans="1:5" ht="15" thickBot="1">
       <c r="A97" s="12" t="s">
         <v>56</v>
       </c>
@@ -10614,7 +10639,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1">
+    <row r="98" spans="1:5" ht="15" thickBot="1">
       <c r="A98" s="12" t="s">
         <v>56</v>
       </c>
@@ -10631,7 +10656,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1">
+    <row r="99" spans="1:5" ht="15" thickBot="1">
       <c r="A99" s="12" t="s">
         <v>56</v>
       </c>
@@ -10648,7 +10673,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1">
+    <row r="100" spans="1:5" ht="15" thickBot="1">
       <c r="A100" s="12" t="s">
         <v>56</v>
       </c>
@@ -10665,7 +10690,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1">
+    <row r="101" spans="1:5" ht="15" thickBot="1">
       <c r="A101" s="12" t="s">
         <v>56</v>
       </c>
@@ -10682,7 +10707,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" thickBot="1">
+    <row r="102" spans="1:5" ht="15" thickBot="1">
       <c r="A102" s="12" t="s">
         <v>56</v>
       </c>
@@ -10699,7 +10724,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1">
+    <row r="103" spans="1:5" ht="15" thickBot="1">
       <c r="A103" s="12" t="s">
         <v>56</v>
       </c>
@@ -10716,7 +10741,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" thickBot="1">
+    <row r="104" spans="1:5" ht="15" thickBot="1">
       <c r="A104" s="12" t="s">
         <v>56</v>
       </c>
@@ -10733,7 +10758,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1">
+    <row r="105" spans="1:5" ht="15" thickBot="1">
       <c r="A105" s="12" t="s">
         <v>56</v>
       </c>
@@ -10750,7 +10775,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1">
+    <row r="106" spans="1:5" ht="15" thickBot="1">
       <c r="A106" s="12" t="s">
         <v>56</v>
       </c>
@@ -10767,7 +10792,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1">
+    <row r="107" spans="1:5" ht="15" thickBot="1">
       <c r="A107" s="12" t="s">
         <v>56</v>
       </c>
@@ -10784,7 +10809,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" thickBot="1">
+    <row r="108" spans="1:5" ht="15" thickBot="1">
       <c r="A108" s="12" t="s">
         <v>56</v>
       </c>
@@ -10801,7 +10826,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1">
+    <row r="109" spans="1:5" ht="15" thickBot="1">
       <c r="A109" s="12" t="s">
         <v>56</v>
       </c>
@@ -10818,7 +10843,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1">
+    <row r="110" spans="1:5" ht="15" thickBot="1">
       <c r="A110" s="12" t="s">
         <v>56</v>
       </c>
@@ -10835,7 +10860,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1">
+    <row r="111" spans="1:5" ht="15" thickBot="1">
       <c r="A111" s="12" t="s">
         <v>56</v>
       </c>
@@ -10852,7 +10877,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1">
+    <row r="112" spans="1:5" ht="15" thickBot="1">
       <c r="A112" s="12" t="s">
         <v>56</v>
       </c>
@@ -10869,7 +10894,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1">
+    <row r="113" spans="1:5" ht="15" thickBot="1">
       <c r="A113" s="12" t="s">
         <v>56</v>
       </c>
@@ -10886,7 +10911,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" thickBot="1">
+    <row r="114" spans="1:5" ht="15" thickBot="1">
       <c r="A114" s="12" t="s">
         <v>56</v>
       </c>
@@ -10903,7 +10928,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1">
+    <row r="115" spans="1:5" ht="15" thickBot="1">
       <c r="A115" s="12" t="s">
         <v>56</v>
       </c>
@@ -10920,7 +10945,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" thickBot="1">
+    <row r="116" spans="1:5" ht="15" thickBot="1">
       <c r="A116" s="12" t="s">
         <v>56</v>
       </c>
@@ -10937,7 +10962,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" thickBot="1">
+    <row r="117" spans="1:5" ht="15" thickBot="1">
       <c r="A117" s="12" t="s">
         <v>56</v>
       </c>
@@ -10954,7 +10979,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1">
+    <row r="118" spans="1:5" ht="15" thickBot="1">
       <c r="A118" s="12" t="s">
         <v>56</v>
       </c>
@@ -10971,7 +10996,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1">
+    <row r="119" spans="1:5" ht="15" thickBot="1">
       <c r="A119" s="12" t="s">
         <v>56</v>
       </c>
@@ -10988,7 +11013,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1">
+    <row r="120" spans="1:5" ht="15" thickBot="1">
       <c r="A120" s="12" t="s">
         <v>56</v>
       </c>
@@ -11005,7 +11030,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1">
+    <row r="121" spans="1:5" ht="15" thickBot="1">
       <c r="A121" s="12" t="s">
         <v>56</v>
       </c>
@@ -11022,7 +11047,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1">
+    <row r="122" spans="1:5" ht="15" thickBot="1">
       <c r="A122" s="12" t="s">
         <v>56</v>
       </c>
@@ -11039,7 +11064,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" thickBot="1">
+    <row r="123" spans="1:5" ht="15" thickBot="1">
       <c r="A123" s="12" t="s">
         <v>56</v>
       </c>
@@ -11056,7 +11081,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" thickBot="1">
+    <row r="124" spans="1:5" ht="15" thickBot="1">
       <c r="A124" s="12" t="s">
         <v>56</v>
       </c>
@@ -11073,7 +11098,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" thickBot="1">
+    <row r="125" spans="1:5" ht="15" thickBot="1">
       <c r="A125" s="12" t="s">
         <v>56</v>
       </c>
@@ -11090,7 +11115,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" thickBot="1">
+    <row r="126" spans="1:5" ht="15" thickBot="1">
       <c r="A126" s="12" t="s">
         <v>56</v>
       </c>
@@ -11107,7 +11132,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" thickBot="1">
+    <row r="127" spans="1:5" ht="15" thickBot="1">
       <c r="A127" s="12" t="s">
         <v>56</v>
       </c>
@@ -11124,7 +11149,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" thickBot="1">
+    <row r="128" spans="1:5" ht="15" thickBot="1">
       <c r="A128" s="12" t="s">
         <v>56</v>
       </c>
@@ -11141,7 +11166,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" thickBot="1">
+    <row r="129" spans="1:5" ht="15" thickBot="1">
       <c r="A129" s="12" t="s">
         <v>56</v>
       </c>
@@ -11158,7 +11183,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1">
+    <row r="130" spans="1:5" ht="15" thickBot="1">
       <c r="A130" s="12" t="s">
         <v>56</v>
       </c>
@@ -11175,7 +11200,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" thickBot="1">
+    <row r="131" spans="1:5" ht="15" thickBot="1">
       <c r="A131" s="12" t="s">
         <v>56</v>
       </c>
@@ -11192,7 +11217,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" thickBot="1">
+    <row r="132" spans="1:5" ht="15" thickBot="1">
       <c r="A132" s="12" t="s">
         <v>56</v>
       </c>
@@ -11209,7 +11234,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" thickBot="1">
+    <row r="133" spans="1:5" ht="15" thickBot="1">
       <c r="A133" s="12" t="s">
         <v>56</v>
       </c>
@@ -11226,7 +11251,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" thickBot="1">
+    <row r="134" spans="1:5" ht="15" thickBot="1">
       <c r="A134" s="12" t="s">
         <v>56</v>
       </c>
@@ -11243,7 +11268,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" thickBot="1">
+    <row r="135" spans="1:5" ht="15" thickBot="1">
       <c r="A135" s="12" t="s">
         <v>56</v>
       </c>
@@ -11260,7 +11285,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" thickBot="1">
+    <row r="136" spans="1:5" ht="15" thickBot="1">
       <c r="A136" s="12" t="s">
         <v>56</v>
       </c>
@@ -11277,7 +11302,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" thickBot="1">
+    <row r="137" spans="1:5" ht="15" thickBot="1">
       <c r="A137" s="12" t="s">
         <v>56</v>
       </c>
@@ -11294,7 +11319,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" thickBot="1">
+    <row r="138" spans="1:5" ht="15" thickBot="1">
       <c r="A138" s="12" t="s">
         <v>56</v>
       </c>
@@ -11311,7 +11336,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" thickBot="1">
+    <row r="139" spans="1:5" ht="15" thickBot="1">
       <c r="A139" s="12" t="s">
         <v>56</v>
       </c>
@@ -11328,7 +11353,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" thickBot="1">
+    <row r="140" spans="1:5" ht="15" thickBot="1">
       <c r="A140" s="12" t="s">
         <v>56</v>
       </c>
@@ -11345,7 +11370,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" thickBot="1">
+    <row r="141" spans="1:5" ht="15" thickBot="1">
       <c r="A141" s="12" t="s">
         <v>56</v>
       </c>
@@ -11362,7 +11387,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" thickBot="1">
+    <row r="142" spans="1:5" ht="15" thickBot="1">
       <c r="A142" s="12" t="s">
         <v>56</v>
       </c>
@@ -11379,7 +11404,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" thickBot="1">
+    <row r="143" spans="1:5" ht="15" thickBot="1">
       <c r="A143" s="12" t="s">
         <v>56</v>
       </c>
@@ -11396,7 +11421,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" thickBot="1">
+    <row r="144" spans="1:5" ht="15" thickBot="1">
       <c r="A144" s="12" t="s">
         <v>56</v>
       </c>
@@ -11413,7 +11438,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" thickBot="1">
+    <row r="145" spans="1:5" ht="15" thickBot="1">
       <c r="A145" s="12" t="s">
         <v>56</v>
       </c>
@@ -11430,7 +11455,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" thickBot="1">
+    <row r="146" spans="1:5" ht="15" thickBot="1">
       <c r="A146" s="12" t="s">
         <v>56</v>
       </c>
@@ -11447,7 +11472,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" thickBot="1">
+    <row r="147" spans="1:5" ht="15" thickBot="1">
       <c r="A147" s="12" t="s">
         <v>56</v>
       </c>
@@ -11464,7 +11489,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" thickBot="1">
+    <row r="148" spans="1:5" ht="15" thickBot="1">
       <c r="A148" s="12" t="s">
         <v>56</v>
       </c>
@@ -11481,7 +11506,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75" thickBot="1">
+    <row r="149" spans="1:5" ht="15" thickBot="1">
       <c r="A149" s="12" t="s">
         <v>56</v>
       </c>
@@ -11498,7 +11523,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" thickBot="1">
+    <row r="150" spans="1:5" ht="15" thickBot="1">
       <c r="A150" s="12" t="s">
         <v>56</v>
       </c>
@@ -11515,7 +11540,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" thickBot="1">
+    <row r="151" spans="1:5" ht="15" thickBot="1">
       <c r="A151" s="12" t="s">
         <v>56</v>
       </c>
@@ -11532,7 +11557,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" thickBot="1">
+    <row r="152" spans="1:5" ht="15" thickBot="1">
       <c r="A152" s="12" t="s">
         <v>56</v>
       </c>
@@ -11549,7 +11574,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" thickBot="1">
+    <row r="153" spans="1:5" ht="15" thickBot="1">
       <c r="A153" s="12" t="s">
         <v>56</v>
       </c>
@@ -11566,7 +11591,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" thickBot="1">
+    <row r="154" spans="1:5" ht="15" thickBot="1">
       <c r="A154" s="12" t="s">
         <v>56</v>
       </c>
@@ -11583,7 +11608,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" thickBot="1">
+    <row r="155" spans="1:5" ht="15" thickBot="1">
       <c r="A155" s="12" t="s">
         <v>56</v>
       </c>
@@ -11600,7 +11625,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" thickBot="1">
+    <row r="156" spans="1:5" ht="15" thickBot="1">
       <c r="A156" s="12" t="s">
         <v>56</v>
       </c>
@@ -11617,7 +11642,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" thickBot="1">
+    <row r="157" spans="1:5" ht="15" thickBot="1">
       <c r="A157" s="12" t="s">
         <v>56</v>
       </c>
@@ -11634,7 +11659,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75" thickBot="1">
+    <row r="158" spans="1:5" ht="15" thickBot="1">
       <c r="A158" s="12" t="s">
         <v>56</v>
       </c>
@@ -11651,7 +11676,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" thickBot="1">
+    <row r="159" spans="1:5" ht="15" thickBot="1">
       <c r="A159" s="12" t="s">
         <v>56</v>
       </c>
@@ -11668,7 +11693,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" thickBot="1">
+    <row r="160" spans="1:5" ht="15" thickBot="1">
       <c r="A160" s="12" t="s">
         <v>56</v>
       </c>
@@ -11685,7 +11710,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" thickBot="1">
+    <row r="161" spans="1:5" ht="15" thickBot="1">
       <c r="A161" s="12" t="s">
         <v>56</v>
       </c>
@@ -11702,7 +11727,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" thickBot="1">
+    <row r="162" spans="1:5" ht="15" thickBot="1">
       <c r="A162" s="12" t="s">
         <v>56</v>
       </c>
@@ -11719,7 +11744,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" thickBot="1">
+    <row r="163" spans="1:5" ht="15" thickBot="1">
       <c r="A163" s="12" t="s">
         <v>56</v>
       </c>
@@ -11736,7 +11761,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75" thickBot="1">
+    <row r="164" spans="1:5" ht="15" thickBot="1">
       <c r="A164" s="12" t="s">
         <v>56</v>
       </c>
@@ -11753,7 +11778,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75" thickBot="1">
+    <row r="165" spans="1:5" ht="15" thickBot="1">
       <c r="A165" s="12" t="s">
         <v>56</v>
       </c>
@@ -11770,7 +11795,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75" thickBot="1">
+    <row r="166" spans="1:5" ht="15" thickBot="1">
       <c r="A166" s="12" t="s">
         <v>56</v>
       </c>
@@ -11787,7 +11812,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75" thickBot="1">
+    <row r="167" spans="1:5" ht="15" thickBot="1">
       <c r="A167" s="12" t="s">
         <v>56</v>
       </c>
@@ -11804,7 +11829,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75" thickBot="1">
+    <row r="168" spans="1:5" ht="15" thickBot="1">
       <c r="A168" s="12" t="s">
         <v>56</v>
       </c>
@@ -11838,7 +11863,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75" thickBot="1">
+    <row r="170" spans="1:5" ht="15" thickBot="1">
       <c r="A170" s="18" t="s">
         <v>56</v>
       </c>
@@ -11855,7 +11880,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.75" thickBot="1">
+    <row r="171" spans="1:5" ht="15" thickBot="1">
       <c r="A171" s="9" t="s">
         <v>56</v>
       </c>
@@ -11872,7 +11897,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75" thickBot="1">
+    <row r="172" spans="1:5" ht="15" thickBot="1">
       <c r="A172" s="12" t="s">
         <v>56</v>
       </c>
@@ -11889,7 +11914,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75" thickBot="1">
+    <row r="173" spans="1:5" ht="15" thickBot="1">
       <c r="A173" s="12" t="s">
         <v>56</v>
       </c>
@@ -11906,7 +11931,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.75" thickBot="1">
+    <row r="174" spans="1:5" ht="15" thickBot="1">
       <c r="A174" s="12" t="s">
         <v>56</v>
       </c>
@@ -11923,7 +11948,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.75" thickBot="1">
+    <row r="175" spans="1:5" ht="15" thickBot="1">
       <c r="A175" s="12" t="s">
         <v>56</v>
       </c>
@@ -11940,7 +11965,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75" thickBot="1">
+    <row r="176" spans="1:5" ht="15" thickBot="1">
       <c r="A176" s="12" t="s">
         <v>56</v>
       </c>
@@ -11957,7 +11982,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" thickBot="1">
+    <row r="177" spans="1:5" ht="15" thickBot="1">
       <c r="A177" s="12" t="s">
         <v>56</v>
       </c>
@@ -11974,7 +11999,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75" thickBot="1">
+    <row r="178" spans="1:5" ht="15" thickBot="1">
       <c r="A178" s="12" t="s">
         <v>56</v>
       </c>
@@ -11991,7 +12016,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75" thickBot="1">
+    <row r="179" spans="1:5" ht="15" thickBot="1">
       <c r="A179" s="12" t="s">
         <v>56</v>
       </c>
@@ -12008,7 +12033,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75" thickBot="1">
+    <row r="180" spans="1:5" ht="15" thickBot="1">
       <c r="A180" s="12" t="s">
         <v>56</v>
       </c>
@@ -12025,7 +12050,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" thickBot="1">
+    <row r="181" spans="1:5" ht="15" thickBot="1">
       <c r="A181" s="12" t="s">
         <v>56</v>
       </c>
@@ -12042,7 +12067,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" thickBot="1">
+    <row r="182" spans="1:5" ht="15" thickBot="1">
       <c r="A182" s="12" t="s">
         <v>56</v>
       </c>
@@ -12059,7 +12084,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75" thickBot="1">
+    <row r="183" spans="1:5" ht="15" thickBot="1">
       <c r="A183" s="12" t="s">
         <v>56</v>
       </c>
@@ -12076,7 +12101,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75" thickBot="1">
+    <row r="184" spans="1:5" ht="15" thickBot="1">
       <c r="A184" s="12" t="s">
         <v>56</v>
       </c>
@@ -12093,7 +12118,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75" thickBot="1">
+    <row r="185" spans="1:5" ht="15" thickBot="1">
       <c r="A185" s="12" t="s">
         <v>56</v>
       </c>
@@ -12110,7 +12135,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75" thickBot="1">
+    <row r="186" spans="1:5" ht="15" thickBot="1">
       <c r="A186" s="12" t="s">
         <v>56</v>
       </c>
@@ -12127,7 +12152,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75" thickBot="1">
+    <row r="187" spans="1:5" ht="15" thickBot="1">
       <c r="A187" s="12" t="s">
         <v>56</v>
       </c>
@@ -12144,7 +12169,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" thickBot="1">
+    <row r="188" spans="1:5" ht="15" thickBot="1">
       <c r="A188" s="12" t="s">
         <v>56</v>
       </c>
@@ -12161,7 +12186,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75" thickBot="1">
+    <row r="189" spans="1:5" ht="15" thickBot="1">
       <c r="A189" s="12" t="s">
         <v>56</v>
       </c>
@@ -12178,7 +12203,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" thickBot="1">
+    <row r="190" spans="1:5" ht="15" thickBot="1">
       <c r="A190" s="12" t="s">
         <v>56</v>
       </c>
@@ -12195,7 +12220,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" thickBot="1">
+    <row r="191" spans="1:5" ht="15" thickBot="1">
       <c r="A191" s="12" t="s">
         <v>56</v>
       </c>
@@ -12212,7 +12237,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75" thickBot="1">
+    <row r="192" spans="1:5" ht="15" thickBot="1">
       <c r="A192" s="12" t="s">
         <v>56</v>
       </c>
@@ -12246,7 +12271,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" thickBot="1">
+    <row r="194" spans="1:5" ht="15" thickBot="1">
       <c r="A194" s="18" t="s">
         <v>56</v>
       </c>
@@ -12263,7 +12288,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" thickBot="1">
+    <row r="195" spans="1:5" ht="15" thickBot="1">
       <c r="A195" s="9" t="s">
         <v>56</v>
       </c>
@@ -12280,7 +12305,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75" thickBot="1">
+    <row r="196" spans="1:5" ht="15" thickBot="1">
       <c r="A196" s="12" t="s">
         <v>56</v>
       </c>
@@ -12297,7 +12322,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.75" thickBot="1">
+    <row r="197" spans="1:5" ht="15" thickBot="1">
       <c r="A197" s="12" t="s">
         <v>56</v>
       </c>
@@ -12314,7 +12339,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75" thickBot="1">
+    <row r="198" spans="1:5" ht="15" thickBot="1">
       <c r="A198" s="12" t="s">
         <v>56</v>
       </c>
@@ -12331,7 +12356,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.75" thickBot="1">
+    <row r="199" spans="1:5" ht="15" thickBot="1">
       <c r="A199" s="12" t="s">
         <v>56</v>
       </c>
@@ -12348,7 +12373,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15.75" thickBot="1">
+    <row r="200" spans="1:5" ht="15" thickBot="1">
       <c r="A200" s="12" t="s">
         <v>56</v>
       </c>
@@ -12365,7 +12390,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.75" thickBot="1">
+    <row r="201" spans="1:5" ht="15" thickBot="1">
       <c r="A201" s="12" t="s">
         <v>56</v>
       </c>
@@ -12382,7 +12407,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.75" thickBot="1">
+    <row r="202" spans="1:5" ht="15" thickBot="1">
       <c r="A202" s="12" t="s">
         <v>56</v>
       </c>
@@ -12399,7 +12424,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.75" thickBot="1">
+    <row r="203" spans="1:5" ht="15" thickBot="1">
       <c r="A203" s="12" t="s">
         <v>56</v>
       </c>
@@ -12416,7 +12441,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.75" thickBot="1">
+    <row r="204" spans="1:5" ht="15" thickBot="1">
       <c r="A204" s="12" t="s">
         <v>56</v>
       </c>
@@ -12433,7 +12458,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.75" thickBot="1">
+    <row r="205" spans="1:5" ht="15" thickBot="1">
       <c r="A205" s="12" t="s">
         <v>56</v>
       </c>
@@ -12450,7 +12475,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15.75" thickBot="1">
+    <row r="206" spans="1:5" ht="15" thickBot="1">
       <c r="A206" s="12" t="s">
         <v>56</v>
       </c>
@@ -12467,7 +12492,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.75" thickBot="1">
+    <row r="207" spans="1:5" ht="15" thickBot="1">
       <c r="A207" s="12" t="s">
         <v>56</v>
       </c>
@@ -12484,7 +12509,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15.75" thickBot="1">
+    <row r="208" spans="1:5" ht="15" thickBot="1">
       <c r="A208" s="12" t="s">
         <v>56</v>
       </c>
@@ -12501,7 +12526,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75" thickBot="1">
+    <row r="209" spans="1:5" ht="15" thickBot="1">
       <c r="A209" s="12" t="s">
         <v>56</v>
       </c>
@@ -12518,7 +12543,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75" thickBot="1">
+    <row r="210" spans="1:5" ht="15" thickBot="1">
       <c r="A210" s="12" t="s">
         <v>56</v>
       </c>
@@ -12535,7 +12560,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75" thickBot="1">
+    <row r="211" spans="1:5" ht="15" thickBot="1">
       <c r="A211" s="12" t="s">
         <v>56</v>
       </c>
@@ -12552,7 +12577,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" thickBot="1">
+    <row r="212" spans="1:5" ht="15" thickBot="1">
       <c r="A212" s="12" t="s">
         <v>56</v>
       </c>
@@ -12569,7 +12594,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75" thickBot="1">
+    <row r="213" spans="1:5" ht="15" thickBot="1">
       <c r="A213" s="12" t="s">
         <v>56</v>
       </c>
@@ -12586,7 +12611,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.75" thickBot="1">
+    <row r="214" spans="1:5" ht="15" thickBot="1">
       <c r="A214" s="12" t="s">
         <v>56</v>
       </c>
@@ -12603,7 +12628,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75" thickBot="1">
+    <row r="215" spans="1:5" ht="15" thickBot="1">
       <c r="A215" s="12" t="s">
         <v>56</v>
       </c>
@@ -12620,7 +12645,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.75" thickBot="1">
+    <row r="216" spans="1:5" ht="15" thickBot="1">
       <c r="A216" s="12" t="s">
         <v>56</v>
       </c>
@@ -12637,7 +12662,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.75" thickBot="1">
+    <row r="217" spans="1:5" ht="15" thickBot="1">
       <c r="A217" s="12" t="s">
         <v>56</v>
       </c>
@@ -12654,7 +12679,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75" thickBot="1">
+    <row r="218" spans="1:5" ht="15" thickBot="1">
       <c r="A218" s="12" t="s">
         <v>56</v>
       </c>
@@ -12671,7 +12696,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75" thickBot="1">
+    <row r="219" spans="1:5" ht="15" thickBot="1">
       <c r="A219" s="12" t="s">
         <v>56</v>
       </c>
@@ -12688,7 +12713,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75" thickBot="1">
+    <row r="220" spans="1:5" ht="15" thickBot="1">
       <c r="A220" s="12" t="s">
         <v>56</v>
       </c>
@@ -12705,7 +12730,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75" thickBot="1">
+    <row r="221" spans="1:5" ht="15" thickBot="1">
       <c r="A221" s="12" t="s">
         <v>56</v>
       </c>
@@ -12722,7 +12747,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.75" thickBot="1">
+    <row r="222" spans="1:5" ht="15" thickBot="1">
       <c r="A222" s="12" t="s">
         <v>56</v>
       </c>
@@ -12739,7 +12764,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75" thickBot="1">
+    <row r="223" spans="1:5" ht="15" thickBot="1">
       <c r="A223" s="12" t="s">
         <v>56</v>
       </c>
@@ -12756,7 +12781,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75" thickBot="1">
+    <row r="224" spans="1:5" ht="15" thickBot="1">
       <c r="A224" s="12" t="s">
         <v>56</v>
       </c>
@@ -12773,7 +12798,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15.75" thickBot="1">
+    <row r="225" spans="1:5" ht="15" thickBot="1">
       <c r="A225" s="12" t="s">
         <v>56</v>
       </c>
@@ -12790,7 +12815,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15.75" thickBot="1">
+    <row r="226" spans="1:5" ht="15" thickBot="1">
       <c r="A226" s="12" t="s">
         <v>56</v>
       </c>
@@ -12807,7 +12832,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15.75" thickBot="1">
+    <row r="227" spans="1:5" ht="15" thickBot="1">
       <c r="A227" s="12" t="s">
         <v>56</v>
       </c>
@@ -12824,7 +12849,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15.75" thickBot="1">
+    <row r="228" spans="1:5" ht="15" thickBot="1">
       <c r="A228" s="12" t="s">
         <v>56</v>
       </c>
@@ -12841,7 +12866,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15.75" thickBot="1">
+    <row r="229" spans="1:5" ht="15" thickBot="1">
       <c r="A229" s="12" t="s">
         <v>56</v>
       </c>
@@ -12858,7 +12883,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15.75" thickBot="1">
+    <row r="230" spans="1:5" ht="15" thickBot="1">
       <c r="A230" s="12" t="s">
         <v>56</v>
       </c>
@@ -12875,7 +12900,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15.75" thickBot="1">
+    <row r="231" spans="1:5" ht="15" thickBot="1">
       <c r="A231" s="12" t="s">
         <v>56</v>
       </c>
@@ -12892,7 +12917,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15.75" thickBot="1">
+    <row r="232" spans="1:5" ht="15" thickBot="1">
       <c r="A232" s="12" t="s">
         <v>56</v>
       </c>
@@ -12909,7 +12934,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15.75" thickBot="1">
+    <row r="233" spans="1:5" ht="15" thickBot="1">
       <c r="A233" s="12" t="s">
         <v>56</v>
       </c>
@@ -12926,7 +12951,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15.75" thickBot="1">
+    <row r="234" spans="1:5" ht="15" thickBot="1">
       <c r="A234" s="12" t="s">
         <v>56</v>
       </c>
@@ -12943,7 +12968,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15.75" thickBot="1">
+    <row r="235" spans="1:5" ht="15" thickBot="1">
       <c r="A235" s="12" t="s">
         <v>56</v>
       </c>
@@ -12960,7 +12985,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15.75" thickBot="1">
+    <row r="236" spans="1:5" ht="15" thickBot="1">
       <c r="A236" s="12" t="s">
         <v>56</v>
       </c>
@@ -12977,7 +13002,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15.75" thickBot="1">
+    <row r="237" spans="1:5" ht="15" thickBot="1">
       <c r="A237" s="12" t="s">
         <v>56</v>
       </c>
@@ -12994,7 +13019,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15.75" thickBot="1">
+    <row r="238" spans="1:5" ht="15" thickBot="1">
       <c r="A238" s="12" t="s">
         <v>56</v>
       </c>
@@ -13011,7 +13036,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75" thickBot="1">
+    <row r="239" spans="1:5" ht="15" thickBot="1">
       <c r="A239" s="12" t="s">
         <v>56</v>
       </c>
@@ -13028,7 +13053,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15.75" thickBot="1">
+    <row r="240" spans="1:5" ht="15" thickBot="1">
       <c r="A240" s="12" t="s">
         <v>56</v>
       </c>
@@ -13045,7 +13070,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75" thickBot="1">
+    <row r="241" spans="1:5" ht="15" thickBot="1">
       <c r="A241" s="12" t="s">
         <v>56</v>
       </c>
@@ -13062,7 +13087,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75" thickBot="1">
+    <row r="242" spans="1:5" ht="15" thickBot="1">
       <c r="A242" s="12" t="s">
         <v>56</v>
       </c>
@@ -13079,7 +13104,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75" thickBot="1">
+    <row r="243" spans="1:5" ht="15" thickBot="1">
       <c r="A243" s="12" t="s">
         <v>56</v>
       </c>
@@ -13096,7 +13121,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75" thickBot="1">
+    <row r="244" spans="1:5" ht="15" thickBot="1">
       <c r="A244" s="12" t="s">
         <v>56</v>
       </c>
@@ -13113,7 +13138,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15.75" thickBot="1">
+    <row r="245" spans="1:5" ht="15" thickBot="1">
       <c r="A245" s="12" t="s">
         <v>56</v>
       </c>
@@ -13130,7 +13155,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15.75" thickBot="1">
+    <row r="246" spans="1:5" ht="15" thickBot="1">
       <c r="A246" s="12" t="s">
         <v>56</v>
       </c>
@@ -13147,7 +13172,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15.75" thickBot="1">
+    <row r="247" spans="1:5" ht="15" thickBot="1">
       <c r="A247" s="12" t="s">
         <v>56</v>
       </c>
@@ -13164,7 +13189,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75" thickBot="1">
+    <row r="248" spans="1:5" ht="15" thickBot="1">
       <c r="A248" s="12" t="s">
         <v>56</v>
       </c>
@@ -13181,7 +13206,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75" thickBot="1">
+    <row r="249" spans="1:5" ht="15" thickBot="1">
       <c r="A249" s="12" t="s">
         <v>56</v>
       </c>
@@ -13198,7 +13223,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75" thickBot="1">
+    <row r="250" spans="1:5" ht="15" thickBot="1">
       <c r="A250" s="12" t="s">
         <v>56</v>
       </c>
@@ -13215,7 +13240,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75" thickBot="1">
+    <row r="251" spans="1:5" ht="15" thickBot="1">
       <c r="A251" s="12" t="s">
         <v>56</v>
       </c>
@@ -13232,7 +13257,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15.75" thickBot="1">
+    <row r="252" spans="1:5" ht="15" thickBot="1">
       <c r="A252" s="12" t="s">
         <v>56</v>
       </c>
@@ -13249,7 +13274,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.75" thickBot="1">
+    <row r="253" spans="1:5" ht="15" thickBot="1">
       <c r="A253" s="12" t="s">
         <v>56</v>
       </c>
@@ -13266,7 +13291,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15.75" thickBot="1">
+    <row r="254" spans="1:5" ht="15" thickBot="1">
       <c r="A254" s="12" t="s">
         <v>56</v>
       </c>
@@ -13283,7 +13308,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" thickBot="1">
+    <row r="255" spans="1:5" ht="15" thickBot="1">
       <c r="A255" s="12" t="s">
         <v>56</v>
       </c>
@@ -13300,7 +13325,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15.75" thickBot="1">
+    <row r="256" spans="1:5" ht="15" thickBot="1">
       <c r="A256" s="12" t="s">
         <v>56</v>
       </c>
@@ -13317,7 +13342,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15.75" thickBot="1">
+    <row r="257" spans="1:5" ht="15" thickBot="1">
       <c r="A257" s="12" t="s">
         <v>56</v>
       </c>
@@ -13334,7 +13359,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15.75" thickBot="1">
+    <row r="258" spans="1:5" ht="15" thickBot="1">
       <c r="A258" s="12" t="s">
         <v>56</v>
       </c>
@@ -13351,7 +13376,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15.75" thickBot="1">
+    <row r="259" spans="1:5" ht="15" thickBot="1">
       <c r="A259" s="12" t="s">
         <v>56</v>
       </c>
@@ -13368,7 +13393,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15.75" thickBot="1">
+    <row r="260" spans="1:5" ht="15" thickBot="1">
       <c r="A260" s="12" t="s">
         <v>56</v>
       </c>
@@ -13385,7 +13410,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15.75" thickBot="1">
+    <row r="261" spans="1:5" ht="15" thickBot="1">
       <c r="A261" s="12" t="s">
         <v>56</v>
       </c>
@@ -13402,7 +13427,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15.75" thickBot="1">
+    <row r="262" spans="1:5" ht="15" thickBot="1">
       <c r="A262" s="12" t="s">
         <v>56</v>
       </c>
@@ -13419,7 +13444,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15.75" thickBot="1">
+    <row r="263" spans="1:5" ht="15" thickBot="1">
       <c r="A263" s="12" t="s">
         <v>826</v>
       </c>
@@ -13436,7 +13461,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15.75" thickBot="1">
+    <row r="264" spans="1:5" ht="15" thickBot="1">
       <c r="A264" s="12" t="s">
         <v>17</v>
       </c>
@@ -13453,7 +13478,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.75" thickBot="1">
+    <row r="265" spans="1:5" ht="15" thickBot="1">
       <c r="A265" s="12" t="s">
         <v>17</v>
       </c>
@@ -13470,7 +13495,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15.75" thickBot="1">
+    <row r="266" spans="1:5" ht="15" thickBot="1">
       <c r="A266" s="12" t="s">
         <v>17</v>
       </c>
@@ -13487,7 +13512,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15.75" thickBot="1">
+    <row r="267" spans="1:5" ht="15" thickBot="1">
       <c r="A267" s="12" t="s">
         <v>17</v>
       </c>
@@ -13504,7 +13529,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15.75" thickBot="1">
+    <row r="268" spans="1:5" ht="15" thickBot="1">
       <c r="A268" s="12" t="s">
         <v>17</v>
       </c>
@@ -13521,7 +13546,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15.75" thickBot="1">
+    <row r="269" spans="1:5" ht="15" thickBot="1">
       <c r="A269" s="12" t="s">
         <v>17</v>
       </c>
@@ -13538,7 +13563,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15.75" thickBot="1">
+    <row r="270" spans="1:5" ht="15" thickBot="1">
       <c r="A270" s="12" t="s">
         <v>17</v>
       </c>
@@ -13555,7 +13580,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15.75" thickBot="1">
+    <row r="271" spans="1:5" ht="15" thickBot="1">
       <c r="A271" s="12" t="s">
         <v>17</v>
       </c>
@@ -13572,7 +13597,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15.75" thickBot="1">
+    <row r="272" spans="1:5" ht="15" thickBot="1">
       <c r="A272" s="12" t="s">
         <v>17</v>
       </c>
@@ -13589,7 +13614,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15.75" thickBot="1">
+    <row r="273" spans="1:5" ht="15" thickBot="1">
       <c r="A273" s="12" t="s">
         <v>17</v>
       </c>
@@ -13606,7 +13631,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15.75" thickBot="1">
+    <row r="274" spans="1:5" ht="15" thickBot="1">
       <c r="A274" s="12" t="s">
         <v>17</v>
       </c>
@@ -13623,7 +13648,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15.75" thickBot="1">
+    <row r="275" spans="1:5" ht="15" thickBot="1">
       <c r="A275" s="12" t="s">
         <v>17</v>
       </c>
@@ -13640,7 +13665,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15.75" thickBot="1">
+    <row r="276" spans="1:5" ht="15" thickBot="1">
       <c r="A276" s="12" t="s">
         <v>17</v>
       </c>
@@ -13657,7 +13682,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15.75" thickBot="1">
+    <row r="277" spans="1:5" ht="15" thickBot="1">
       <c r="A277" s="12" t="s">
         <v>17</v>
       </c>
@@ -13674,7 +13699,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15.75" thickBot="1">
+    <row r="278" spans="1:5" ht="15" thickBot="1">
       <c r="A278" s="12" t="s">
         <v>17</v>
       </c>
@@ -13691,7 +13716,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15.75" thickBot="1">
+    <row r="279" spans="1:5" ht="15" thickBot="1">
       <c r="A279" s="12" t="s">
         <v>17</v>
       </c>
@@ -13708,7 +13733,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15.75" thickBot="1">
+    <row r="280" spans="1:5" ht="15" thickBot="1">
       <c r="A280" s="12" t="s">
         <v>17</v>
       </c>
@@ -13725,7 +13750,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15.75" thickBot="1">
+    <row r="281" spans="1:5" ht="15" thickBot="1">
       <c r="A281" s="12" t="s">
         <v>17</v>
       </c>
@@ -13742,7 +13767,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15.75" thickBot="1">
+    <row r="282" spans="1:5" ht="15" thickBot="1">
       <c r="A282" s="12" t="s">
         <v>17</v>
       </c>
@@ -13759,7 +13784,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15.75" thickBot="1">
+    <row r="283" spans="1:5" ht="15" thickBot="1">
       <c r="A283" s="12" t="s">
         <v>17</v>
       </c>
@@ -13776,7 +13801,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15.75" thickBot="1">
+    <row r="284" spans="1:5" ht="15" thickBot="1">
       <c r="A284" s="12" t="s">
         <v>17</v>
       </c>
@@ -13793,7 +13818,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15.75" thickBot="1">
+    <row r="285" spans="1:5" ht="15" thickBot="1">
       <c r="A285" s="12" t="s">
         <v>17</v>
       </c>
@@ -13810,7 +13835,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15.75" thickBot="1">
+    <row r="286" spans="1:5" ht="15" thickBot="1">
       <c r="A286" s="12" t="s">
         <v>15</v>
       </c>
@@ -13827,7 +13852,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15.75" thickBot="1">
+    <row r="287" spans="1:5" ht="15" thickBot="1">
       <c r="A287" s="12" t="s">
         <v>15</v>
       </c>
@@ -13844,7 +13869,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15.75" thickBot="1">
+    <row r="288" spans="1:5" ht="15" thickBot="1">
       <c r="A288" s="12" t="s">
         <v>15</v>
       </c>
@@ -13861,7 +13886,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15.75" thickBot="1">
+    <row r="289" spans="1:5" ht="15" thickBot="1">
       <c r="A289" s="12" t="s">
         <v>15</v>
       </c>
@@ -13878,7 +13903,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15.75" thickBot="1">
+    <row r="290" spans="1:5" ht="15" thickBot="1">
       <c r="A290" s="12" t="s">
         <v>15</v>
       </c>
@@ -13895,7 +13920,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15.75" thickBot="1">
+    <row r="291" spans="1:5" ht="15" thickBot="1">
       <c r="A291" s="12" t="s">
         <v>15</v>
       </c>
@@ -13912,7 +13937,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15.75" thickBot="1">
+    <row r="292" spans="1:5" ht="15" thickBot="1">
       <c r="A292" s="12" t="s">
         <v>15</v>
       </c>
@@ -13929,7 +13954,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15.75" thickBot="1">
+    <row r="293" spans="1:5" ht="15" thickBot="1">
       <c r="A293" s="12" t="s">
         <v>15</v>
       </c>
@@ -13946,7 +13971,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15.75" thickBot="1">
+    <row r="294" spans="1:5" ht="15" thickBot="1">
       <c r="A294" s="12" t="s">
         <v>15</v>
       </c>
@@ -13963,7 +13988,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15.75" thickBot="1">
+    <row r="295" spans="1:5" ht="15" thickBot="1">
       <c r="A295" s="12" t="s">
         <v>15</v>
       </c>
@@ -13980,7 +14005,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15.75" thickBot="1">
+    <row r="296" spans="1:5" ht="15" thickBot="1">
       <c r="A296" s="12" t="s">
         <v>15</v>
       </c>
@@ -13997,7 +14022,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15.75" thickBot="1">
+    <row r="297" spans="1:5" ht="15" thickBot="1">
       <c r="A297" s="12" t="s">
         <v>15</v>
       </c>
@@ -14014,7 +14039,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15.75" thickBot="1">
+    <row r="298" spans="1:5" ht="15" thickBot="1">
       <c r="A298" s="12" t="s">
         <v>15</v>
       </c>
@@ -14031,7 +14056,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15.75" thickBot="1">
+    <row r="299" spans="1:5" ht="15" thickBot="1">
       <c r="A299" s="12" t="s">
         <v>15</v>
       </c>
@@ -14048,7 +14073,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15.75" thickBot="1">
+    <row r="300" spans="1:5" ht="15" thickBot="1">
       <c r="A300" s="12" t="s">
         <v>15</v>
       </c>
@@ -14065,7 +14090,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15.75" thickBot="1">
+    <row r="301" spans="1:5" ht="15" thickBot="1">
       <c r="A301" s="12" t="s">
         <v>15</v>
       </c>
@@ -14082,7 +14107,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15.75" thickBot="1">
+    <row r="302" spans="1:5" ht="15" thickBot="1">
       <c r="A302" s="12" t="s">
         <v>15</v>
       </c>
@@ -14099,7 +14124,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15.75" thickBot="1">
+    <row r="303" spans="1:5" ht="15" thickBot="1">
       <c r="A303" s="12" t="s">
         <v>15</v>
       </c>
@@ -14116,7 +14141,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15.75" thickBot="1">
+    <row r="304" spans="1:5" ht="15" thickBot="1">
       <c r="A304" s="12" t="s">
         <v>15</v>
       </c>
@@ -14133,7 +14158,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15.75" thickBot="1">
+    <row r="305" spans="1:5" ht="15" thickBot="1">
       <c r="A305" s="12" t="s">
         <v>15</v>
       </c>
@@ -14150,7 +14175,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15.75" thickBot="1">
+    <row r="306" spans="1:5" ht="15" thickBot="1">
       <c r="A306" s="12" t="s">
         <v>15</v>
       </c>
@@ -14167,7 +14192,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15.75" thickBot="1">
+    <row r="307" spans="1:5" ht="15" thickBot="1">
       <c r="A307" s="12" t="s">
         <v>15</v>
       </c>
@@ -14184,7 +14209,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15.75" thickBot="1">
+    <row r="308" spans="1:5" ht="15" thickBot="1">
       <c r="A308" s="12" t="s">
         <v>15</v>
       </c>
@@ -14201,7 +14226,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15.75" thickBot="1">
+    <row r="309" spans="1:5" ht="15" thickBot="1">
       <c r="A309" s="12" t="s">
         <v>15</v>
       </c>
@@ -14218,7 +14243,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15.75" thickBot="1">
+    <row r="310" spans="1:5" ht="15" thickBot="1">
       <c r="A310" s="12" t="s">
         <v>15</v>
       </c>
@@ -14235,7 +14260,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15.75" thickBot="1">
+    <row r="311" spans="1:5" ht="15" thickBot="1">
       <c r="A311" s="12" t="s">
         <v>15</v>
       </c>
@@ -14252,7 +14277,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15.75" thickBot="1">
+    <row r="312" spans="1:5" ht="15" thickBot="1">
       <c r="A312" s="12" t="s">
         <v>15</v>
       </c>
@@ -14269,7 +14294,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15.75" thickBot="1">
+    <row r="313" spans="1:5" ht="15" thickBot="1">
       <c r="A313" s="12" t="s">
         <v>15</v>
       </c>
@@ -14286,7 +14311,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15.75" thickBot="1">
+    <row r="314" spans="1:5" ht="15" thickBot="1">
       <c r="A314" s="12" t="s">
         <v>15</v>
       </c>
@@ -14303,7 +14328,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15.75" thickBot="1">
+    <row r="315" spans="1:5" ht="15" thickBot="1">
       <c r="A315" s="12" t="s">
         <v>15</v>
       </c>
@@ -14320,7 +14345,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15.75" thickBot="1">
+    <row r="316" spans="1:5" ht="15" thickBot="1">
       <c r="A316" s="12" t="s">
         <v>15</v>
       </c>
@@ -14337,7 +14362,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15.75" thickBot="1">
+    <row r="317" spans="1:5" ht="15" thickBot="1">
       <c r="A317" s="12" t="s">
         <v>15</v>
       </c>
@@ -14354,7 +14379,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15.75" thickBot="1">
+    <row r="318" spans="1:5" ht="15" thickBot="1">
       <c r="A318" s="12" t="s">
         <v>15</v>
       </c>
@@ -14371,7 +14396,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15.75" thickBot="1">
+    <row r="319" spans="1:5" ht="15" thickBot="1">
       <c r="A319" s="12" t="s">
         <v>15</v>
       </c>
@@ -14388,7 +14413,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15.75" thickBot="1">
+    <row r="320" spans="1:5" ht="15" thickBot="1">
       <c r="A320" s="12" t="s">
         <v>15</v>
       </c>
@@ -14405,7 +14430,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15.75" thickBot="1">
+    <row r="321" spans="1:5" ht="15" thickBot="1">
       <c r="A321" s="12" t="s">
         <v>15</v>
       </c>
@@ -14422,7 +14447,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15.75" thickBot="1">
+    <row r="322" spans="1:5" ht="15" thickBot="1">
       <c r="A322" s="12" t="s">
         <v>15</v>
       </c>
@@ -14439,7 +14464,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15.75" thickBot="1">
+    <row r="323" spans="1:5" ht="15" thickBot="1">
       <c r="A323" s="12" t="s">
         <v>15</v>
       </c>
@@ -14456,7 +14481,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15.75" thickBot="1">
+    <row r="324" spans="1:5" ht="15" thickBot="1">
       <c r="A324" s="12" t="s">
         <v>15</v>
       </c>
@@ -14473,7 +14498,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15.75" thickBot="1">
+    <row r="325" spans="1:5" ht="15" thickBot="1">
       <c r="A325" s="12" t="s">
         <v>15</v>
       </c>
@@ -14490,7 +14515,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15.75" thickBot="1">
+    <row r="326" spans="1:5" ht="15" thickBot="1">
       <c r="A326" s="12" t="s">
         <v>15</v>
       </c>
@@ -14507,7 +14532,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15.75" thickBot="1">
+    <row r="327" spans="1:5" ht="15" thickBot="1">
       <c r="A327" s="12" t="s">
         <v>15</v>
       </c>
@@ -14524,7 +14549,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15.75" thickBot="1">
+    <row r="328" spans="1:5" ht="15" thickBot="1">
       <c r="A328" s="12" t="s">
         <v>15</v>
       </c>
@@ -14541,7 +14566,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15.75" thickBot="1">
+    <row r="329" spans="1:5" ht="15" thickBot="1">
       <c r="A329" s="12" t="s">
         <v>15</v>
       </c>
@@ -14558,7 +14583,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15.75" thickBot="1">
+    <row r="330" spans="1:5" ht="15" thickBot="1">
       <c r="A330" s="12" t="s">
         <v>15</v>
       </c>
@@ -14575,7 +14600,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15.75" thickBot="1">
+    <row r="331" spans="1:5" ht="15" thickBot="1">
       <c r="A331" s="12" t="s">
         <v>15</v>
       </c>
@@ -14592,7 +14617,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15.75" thickBot="1">
+    <row r="332" spans="1:5" ht="15" thickBot="1">
       <c r="A332" s="12" t="s">
         <v>15</v>
       </c>
@@ -14609,7 +14634,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15.75" thickBot="1">
+    <row r="333" spans="1:5" ht="15" thickBot="1">
       <c r="A333" s="12" t="s">
         <v>15</v>
       </c>
@@ -14626,7 +14651,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15.75" thickBot="1">
+    <row r="334" spans="1:5" ht="15" thickBot="1">
       <c r="A334" s="12" t="s">
         <v>15</v>
       </c>
@@ -14643,7 +14668,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15.75" thickBot="1">
+    <row r="335" spans="1:5" ht="15" thickBot="1">
       <c r="A335" s="12" t="s">
         <v>15</v>
       </c>
@@ -14660,7 +14685,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15.75" thickBot="1">
+    <row r="336" spans="1:5" ht="15" thickBot="1">
       <c r="A336" s="12" t="s">
         <v>15</v>
       </c>
@@ -14677,7 +14702,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15.75" thickBot="1">
+    <row r="337" spans="1:5" ht="15" thickBot="1">
       <c r="A337" s="12" t="s">
         <v>15</v>
       </c>
@@ -14694,7 +14719,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15.75" thickBot="1">
+    <row r="338" spans="1:5" ht="15" thickBot="1">
       <c r="A338" s="12" t="s">
         <v>15</v>
       </c>
@@ -14711,7 +14736,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15.75" thickBot="1">
+    <row r="339" spans="1:5" ht="15" thickBot="1">
       <c r="A339" s="12" t="s">
         <v>15</v>
       </c>
@@ -14728,7 +14753,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15.75" thickBot="1">
+    <row r="340" spans="1:5" ht="15" thickBot="1">
       <c r="A340" s="12" t="s">
         <v>15</v>
       </c>
@@ -14745,7 +14770,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15.75" thickBot="1">
+    <row r="341" spans="1:5" ht="15" thickBot="1">
       <c r="A341" s="12" t="s">
         <v>15</v>
       </c>
@@ -14762,7 +14787,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15.75" thickBot="1">
+    <row r="342" spans="1:5" ht="15" thickBot="1">
       <c r="A342" s="12" t="s">
         <v>15</v>
       </c>
@@ -14779,7 +14804,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15.75" thickBot="1">
+    <row r="343" spans="1:5" ht="15" thickBot="1">
       <c r="A343" s="12" t="s">
         <v>15</v>
       </c>
@@ -14796,7 +14821,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15.75" thickBot="1">
+    <row r="344" spans="1:5" ht="15" thickBot="1">
       <c r="A344" s="12" t="s">
         <v>15</v>
       </c>
@@ -14813,7 +14838,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15.75" thickBot="1">
+    <row r="345" spans="1:5" ht="15" thickBot="1">
       <c r="A345" s="12" t="s">
         <v>15</v>
       </c>
@@ -14830,7 +14855,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15.75" thickBot="1">
+    <row r="346" spans="1:5" ht="15" thickBot="1">
       <c r="A346" s="12" t="s">
         <v>15</v>
       </c>
@@ -14847,7 +14872,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15.75" thickBot="1">
+    <row r="347" spans="1:5" ht="15" thickBot="1">
       <c r="A347" s="12" t="s">
         <v>15</v>
       </c>
@@ -14864,7 +14889,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15.75" thickBot="1">
+    <row r="348" spans="1:5" ht="15" thickBot="1">
       <c r="A348" s="12" t="s">
         <v>15</v>
       </c>
@@ -14881,7 +14906,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15.75" thickBot="1">
+    <row r="349" spans="1:5" ht="15" thickBot="1">
       <c r="A349" s="12" t="s">
         <v>15</v>
       </c>
@@ -14898,7 +14923,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15.75" thickBot="1">
+    <row r="350" spans="1:5" ht="15" thickBot="1">
       <c r="A350" s="12" t="s">
         <v>15</v>
       </c>
@@ -14915,7 +14940,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15.75" thickBot="1">
+    <row r="351" spans="1:5" ht="15" thickBot="1">
       <c r="A351" s="12" t="s">
         <v>15</v>
       </c>
@@ -14932,7 +14957,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15.75" thickBot="1">
+    <row r="352" spans="1:5" ht="15" thickBot="1">
       <c r="A352" s="12" t="s">
         <v>15</v>
       </c>
@@ -14949,7 +14974,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15.75" thickBot="1">
+    <row r="353" spans="1:5" ht="15" thickBot="1">
       <c r="A353" s="12" t="s">
         <v>15</v>
       </c>
@@ -14966,7 +14991,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15.75" thickBot="1">
+    <row r="354" spans="1:5" ht="15" thickBot="1">
       <c r="A354" s="12" t="s">
         <v>15</v>
       </c>
@@ -14983,7 +15008,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15.75" thickBot="1">
+    <row r="355" spans="1:5" ht="15" thickBot="1">
       <c r="A355" s="12" t="s">
         <v>15</v>
       </c>
@@ -15000,7 +15025,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15.75" thickBot="1">
+    <row r="356" spans="1:5" ht="15" thickBot="1">
       <c r="A356" s="12" t="s">
         <v>15</v>
       </c>
@@ -15017,7 +15042,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15.75" thickBot="1">
+    <row r="357" spans="1:5" ht="15" thickBot="1">
       <c r="A357" s="12" t="s">
         <v>15</v>
       </c>
@@ -15034,7 +15059,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="15.75" thickBot="1">
+    <row r="358" spans="1:5" ht="15" thickBot="1">
       <c r="A358" s="12" t="s">
         <v>15</v>
       </c>
@@ -15051,7 +15076,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15.75" thickBot="1">
+    <row r="359" spans="1:5" ht="15" thickBot="1">
       <c r="A359" s="12" t="s">
         <v>15</v>
       </c>
@@ -15068,7 +15093,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="15.75" thickBot="1">
+    <row r="360" spans="1:5" ht="15" thickBot="1">
       <c r="A360" s="12" t="s">
         <v>15</v>
       </c>
@@ -15085,7 +15110,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="15.75" thickBot="1">
+    <row r="361" spans="1:5" ht="15" thickBot="1">
       <c r="A361" s="12" t="s">
         <v>15</v>
       </c>
@@ -15102,7 +15127,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15.75" thickBot="1">
+    <row r="362" spans="1:5" ht="15" thickBot="1">
       <c r="A362" s="12" t="s">
         <v>15</v>
       </c>
@@ -15119,7 +15144,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="15.75" thickBot="1">
+    <row r="363" spans="1:5" ht="15" thickBot="1">
       <c r="A363" s="12" t="s">
         <v>15</v>
       </c>
@@ -15136,7 +15161,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="15.75" thickBot="1">
+    <row r="364" spans="1:5" ht="15" thickBot="1">
       <c r="A364" s="12" t="s">
         <v>15</v>
       </c>
@@ -15153,7 +15178,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="15.75" thickBot="1">
+    <row r="365" spans="1:5" ht="15" thickBot="1">
       <c r="A365" s="12" t="s">
         <v>15</v>
       </c>
@@ -15170,7 +15195,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="15.75" thickBot="1">
+    <row r="366" spans="1:5" ht="15" thickBot="1">
       <c r="A366" s="12" t="s">
         <v>15</v>
       </c>
@@ -15187,7 +15212,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="15.75" thickBot="1">
+    <row r="367" spans="1:5" ht="15" thickBot="1">
       <c r="A367" s="12" t="s">
         <v>15</v>
       </c>
@@ -15204,7 +15229,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="15.75" thickBot="1">
+    <row r="368" spans="1:5" ht="15" thickBot="1">
       <c r="A368" s="12" t="s">
         <v>15</v>
       </c>
@@ -15221,7 +15246,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="15.75" thickBot="1">
+    <row r="369" spans="1:5" ht="15" thickBot="1">
       <c r="A369" s="12" t="s">
         <v>15</v>
       </c>
@@ -15238,7 +15263,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="15.75" thickBot="1">
+    <row r="370" spans="1:5" ht="15" thickBot="1">
       <c r="A370" s="12" t="s">
         <v>15</v>
       </c>
@@ -15255,7 +15280,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="15.75" thickBot="1">
+    <row r="371" spans="1:5" ht="15" thickBot="1">
       <c r="A371" s="12" t="s">
         <v>15</v>
       </c>
@@ -15272,7 +15297,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="15.75" thickBot="1">
+    <row r="372" spans="1:5" ht="15" thickBot="1">
       <c r="A372" s="12" t="s">
         <v>15</v>
       </c>
@@ -15289,7 +15314,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="15.75" thickBot="1">
+    <row r="373" spans="1:5" ht="15" thickBot="1">
       <c r="A373" s="12" t="s">
         <v>15</v>
       </c>
@@ -15306,7 +15331,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15.75" thickBot="1">
+    <row r="374" spans="1:5" ht="15" thickBot="1">
       <c r="A374" s="12" t="s">
         <v>15</v>
       </c>
@@ -15323,7 +15348,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="15.75" thickBot="1">
+    <row r="375" spans="1:5" ht="15" thickBot="1">
       <c r="A375" s="12" t="s">
         <v>15</v>
       </c>
@@ -15340,7 +15365,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="15.75" thickBot="1">
+    <row r="376" spans="1:5" ht="15" thickBot="1">
       <c r="A376" s="12" t="s">
         <v>15</v>
       </c>
@@ -15357,7 +15382,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="15.75" thickBot="1">
+    <row r="377" spans="1:5" ht="15" thickBot="1">
       <c r="A377" s="12" t="s">
         <v>15</v>
       </c>
@@ -15374,7 +15399,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="15.75" thickBot="1">
+    <row r="378" spans="1:5" ht="15" thickBot="1">
       <c r="A378" s="12" t="s">
         <v>15</v>
       </c>
@@ -15391,7 +15416,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="15.75" thickBot="1">
+    <row r="379" spans="1:5" ht="15" thickBot="1">
       <c r="A379" s="12" t="s">
         <v>15</v>
       </c>
@@ -15408,7 +15433,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="15.75" thickBot="1">
+    <row r="380" spans="1:5" ht="15" thickBot="1">
       <c r="A380" s="12" t="s">
         <v>15</v>
       </c>
@@ -15425,7 +15450,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15.75" thickBot="1">
+    <row r="381" spans="1:5" ht="15" thickBot="1">
       <c r="A381" s="12" t="s">
         <v>15</v>
       </c>
@@ -15442,7 +15467,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15.75" thickBot="1">
+    <row r="382" spans="1:5" ht="15" thickBot="1">
       <c r="A382" s="12" t="s">
         <v>15</v>
       </c>
@@ -15459,7 +15484,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15.75" thickBot="1">
+    <row r="383" spans="1:5" ht="15" thickBot="1">
       <c r="A383" s="12" t="s">
         <v>15</v>
       </c>
@@ -15476,7 +15501,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="15.75" thickBot="1">
+    <row r="384" spans="1:5" ht="15" thickBot="1">
       <c r="A384" s="12" t="s">
         <v>15</v>
       </c>
@@ -15493,7 +15518,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="15.75" thickBot="1">
+    <row r="385" spans="1:5" ht="15" thickBot="1">
       <c r="A385" s="12" t="s">
         <v>15</v>
       </c>
@@ -15510,7 +15535,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="15.75" thickBot="1">
+    <row r="386" spans="1:5" ht="15" thickBot="1">
       <c r="A386" s="12" t="s">
         <v>15</v>
       </c>
@@ -15527,7 +15552,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="15.75" thickBot="1">
+    <row r="387" spans="1:5" ht="15" thickBot="1">
       <c r="A387" s="12" t="s">
         <v>15</v>
       </c>
@@ -15544,7 +15569,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="15.75" thickBot="1">
+    <row r="388" spans="1:5" ht="15" thickBot="1">
       <c r="A388" s="12" t="s">
         <v>15</v>
       </c>
@@ -15561,7 +15586,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="15.75" thickBot="1">
+    <row r="389" spans="1:5" ht="15" thickBot="1">
       <c r="A389" s="12" t="s">
         <v>15</v>
       </c>
@@ -15578,7 +15603,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="15.75" thickBot="1">
+    <row r="390" spans="1:5" ht="15" thickBot="1">
       <c r="A390" s="12" t="s">
         <v>15</v>
       </c>
@@ -15595,7 +15620,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="15.75" thickBot="1">
+    <row r="391" spans="1:5" ht="15" thickBot="1">
       <c r="A391" s="12" t="s">
         <v>15</v>
       </c>
@@ -15612,7 +15637,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="15.75" thickBot="1">
+    <row r="392" spans="1:5" ht="15" thickBot="1">
       <c r="A392" s="12" t="s">
         <v>15</v>
       </c>
@@ -15629,7 +15654,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="15.75" thickBot="1">
+    <row r="393" spans="1:5" ht="15" thickBot="1">
       <c r="A393" s="12" t="s">
         <v>15</v>
       </c>
@@ -15646,7 +15671,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="15.75" thickBot="1">
+    <row r="394" spans="1:5" ht="15" thickBot="1">
       <c r="A394" s="12" t="s">
         <v>15</v>
       </c>
@@ -15663,7 +15688,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="15.75" thickBot="1">
+    <row r="395" spans="1:5" ht="15" thickBot="1">
       <c r="A395" s="12" t="s">
         <v>15</v>
       </c>
@@ -15680,7 +15705,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="15.75" thickBot="1">
+    <row r="396" spans="1:5" ht="15" thickBot="1">
       <c r="A396" s="12" t="s">
         <v>15</v>
       </c>
@@ -15697,7 +15722,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="15.75" thickBot="1">
+    <row r="397" spans="1:5" ht="15" thickBot="1">
       <c r="A397" s="12" t="s">
         <v>15</v>
       </c>
@@ -15714,7 +15739,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="15.75" thickBot="1">
+    <row r="398" spans="1:5" ht="15" thickBot="1">
       <c r="A398" s="12" t="s">
         <v>15</v>
       </c>
@@ -15731,7 +15756,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="15.75" thickBot="1">
+    <row r="399" spans="1:5" ht="15" thickBot="1">
       <c r="A399" s="12" t="s">
         <v>15</v>
       </c>
@@ -15748,7 +15773,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="15.75" thickBot="1">
+    <row r="400" spans="1:5" ht="15" thickBot="1">
       <c r="A400" s="12" t="s">
         <v>15</v>
       </c>
@@ -15765,7 +15790,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="15.75" thickBot="1">
+    <row r="401" spans="1:5" ht="15" thickBot="1">
       <c r="A401" s="12" t="s">
         <v>15</v>
       </c>
@@ -15782,7 +15807,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="15.75" thickBot="1">
+    <row r="402" spans="1:5" ht="15" thickBot="1">
       <c r="A402" s="12" t="s">
         <v>15</v>
       </c>
@@ -15799,7 +15824,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="15.75" thickBot="1">
+    <row r="403" spans="1:5" ht="15" thickBot="1">
       <c r="A403" s="12" t="s">
         <v>15</v>
       </c>
@@ -15816,7 +15841,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="15.75" thickBot="1">
+    <row r="404" spans="1:5" ht="15" thickBot="1">
       <c r="A404" s="12" t="s">
         <v>15</v>
       </c>
@@ -15833,7 +15858,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="15.75" thickBot="1">
+    <row r="405" spans="1:5" ht="15" thickBot="1">
       <c r="A405" s="12" t="s">
         <v>15</v>
       </c>
@@ -15850,7 +15875,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="15.75" thickBot="1">
+    <row r="406" spans="1:5" ht="15" thickBot="1">
       <c r="A406" s="12" t="s">
         <v>15</v>
       </c>
@@ -15867,7 +15892,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="15.75" thickBot="1">
+    <row r="407" spans="1:5" ht="15" thickBot="1">
       <c r="A407" s="12" t="s">
         <v>15</v>
       </c>
@@ -15884,7 +15909,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="15.75" thickBot="1">
+    <row r="408" spans="1:5" ht="15" thickBot="1">
       <c r="A408" s="12" t="s">
         <v>15</v>
       </c>
@@ -15901,7 +15926,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="15.75" thickBot="1">
+    <row r="409" spans="1:5" ht="15" thickBot="1">
       <c r="A409" s="12" t="s">
         <v>15</v>
       </c>
@@ -15918,7 +15943,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="15.75" thickBot="1">
+    <row r="410" spans="1:5" ht="15" thickBot="1">
       <c r="A410" s="12" t="s">
         <v>15</v>
       </c>
@@ -15935,7 +15960,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="15.75" thickBot="1">
+    <row r="411" spans="1:5" ht="15" thickBot="1">
       <c r="A411" s="12" t="s">
         <v>15</v>
       </c>
@@ -15952,7 +15977,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="15.75" thickBot="1">
+    <row r="412" spans="1:5" ht="15" thickBot="1">
       <c r="A412" s="12" t="s">
         <v>15</v>
       </c>
@@ -15969,7 +15994,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="15.75" thickBot="1">
+    <row r="413" spans="1:5" ht="15" thickBot="1">
       <c r="A413" s="12" t="s">
         <v>15</v>
       </c>
@@ -15986,7 +16011,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="15.75" thickBot="1">
+    <row r="414" spans="1:5" ht="15" thickBot="1">
       <c r="A414" s="12" t="s">
         <v>15</v>
       </c>
@@ -16003,7 +16028,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="15.75" thickBot="1">
+    <row r="415" spans="1:5" ht="15" thickBot="1">
       <c r="A415" s="12" t="s">
         <v>15</v>
       </c>
@@ -16020,7 +16045,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="15.75" thickBot="1">
+    <row r="416" spans="1:5" ht="15" thickBot="1">
       <c r="A416" s="12" t="s">
         <v>15</v>
       </c>
@@ -16037,7 +16062,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="15.75" thickBot="1">
+    <row r="417" spans="1:5" ht="15" thickBot="1">
       <c r="A417" s="12" t="s">
         <v>15</v>
       </c>
@@ -16054,7 +16079,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="15.75" thickBot="1">
+    <row r="418" spans="1:5" ht="15" thickBot="1">
       <c r="A418" s="12" t="s">
         <v>15</v>
       </c>
@@ -16071,7 +16096,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="15.75" thickBot="1">
+    <row r="419" spans="1:5" ht="15" thickBot="1">
       <c r="A419" s="12" t="s">
         <v>15</v>
       </c>
@@ -16088,7 +16113,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="15.75" thickBot="1">
+    <row r="420" spans="1:5" ht="15" thickBot="1">
       <c r="A420" s="12" t="s">
         <v>15</v>
       </c>
@@ -16105,7 +16130,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="15.75" thickBot="1">
+    <row r="421" spans="1:5" ht="15" thickBot="1">
       <c r="A421" s="12" t="s">
         <v>15</v>
       </c>
@@ -16122,7 +16147,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="15.75" thickBot="1">
+    <row r="422" spans="1:5" ht="15" thickBot="1">
       <c r="A422" s="12" t="s">
         <v>15</v>
       </c>
@@ -16139,7 +16164,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="15.75" thickBot="1">
+    <row r="423" spans="1:5" ht="15" thickBot="1">
       <c r="A423" s="12" t="s">
         <v>15</v>
       </c>
@@ -16156,7 +16181,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="15.75" thickBot="1">
+    <row r="424" spans="1:5" ht="15" thickBot="1">
       <c r="A424" s="12" t="s">
         <v>15</v>
       </c>
@@ -16173,7 +16198,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="15.75" thickBot="1">
+    <row r="425" spans="1:5" ht="15" thickBot="1">
       <c r="A425" s="12" t="s">
         <v>15</v>
       </c>
@@ -16190,7 +16215,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="15.75" thickBot="1">
+    <row r="426" spans="1:5" ht="15" thickBot="1">
       <c r="A426" s="12" t="s">
         <v>15</v>
       </c>
@@ -16207,7 +16232,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="15.75" thickBot="1">
+    <row r="427" spans="1:5" ht="15" thickBot="1">
       <c r="A427" s="12" t="s">
         <v>15</v>
       </c>
@@ -16224,7 +16249,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="15.75" thickBot="1">
+    <row r="428" spans="1:5" ht="15" thickBot="1">
       <c r="A428" s="12" t="s">
         <v>15</v>
       </c>
@@ -16241,35 +16266,35 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="15.75" thickBot="1">
+    <row r="429" spans="1:5" ht="15" thickBot="1">
       <c r="A429" s="19"/>
       <c r="B429" s="21"/>
       <c r="C429" s="21"/>
       <c r="D429" s="21"/>
       <c r="E429" s="21"/>
     </row>
-    <row r="430" spans="1:5" ht="15.75" thickBot="1">
+    <row r="430" spans="1:5" ht="15" thickBot="1">
       <c r="A430" s="19"/>
       <c r="B430" s="21"/>
       <c r="C430" s="21"/>
       <c r="D430" s="21"/>
       <c r="E430" s="21"/>
     </row>
-    <row r="431" spans="1:5" ht="15.75" thickBot="1">
+    <row r="431" spans="1:5" ht="15" thickBot="1">
       <c r="A431" s="19"/>
       <c r="B431" s="21"/>
       <c r="C431" s="21"/>
       <c r="D431" s="21"/>
       <c r="E431" s="21"/>
     </row>
-    <row r="432" spans="1:5" ht="15.75" thickBot="1">
+    <row r="432" spans="1:5" ht="15" thickBot="1">
       <c r="A432" s="19"/>
       <c r="B432" s="21"/>
       <c r="C432" s="21"/>
       <c r="D432" s="21"/>
       <c r="E432" s="21"/>
     </row>
-    <row r="433" spans="1:5" ht="15.75" thickBot="1">
+    <row r="433" spans="1:5" ht="15" thickBot="1">
       <c r="A433" s="19"/>
       <c r="B433" s="21"/>
       <c r="C433" s="21"/>
@@ -16279,10 +16304,10 @@
     <row r="434" spans="1:5">
       <c r="A434" s="17"/>
     </row>
-    <row r="435" spans="1:5" ht="15.75" thickBot="1">
+    <row r="435" spans="1:5" ht="15" thickBot="1">
       <c r="A435" s="17"/>
     </row>
-    <row r="436" spans="1:5" ht="15.75" thickBot="1">
+    <row r="436" spans="1:5" ht="15" thickBot="1">
       <c r="A436" s="20"/>
       <c r="B436" s="22"/>
       <c r="C436" s="22"/>
